--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302BF19C-CB67-4A72-B182-3050CD0DD0EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB64F00-7F57-4563-99C8-1606081BC5F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13214,9 +13214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449FE37E-F655-4604-BEB8-C483EE37E008}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -14217,7 +14217,9 @@
       <c r="M25" s="36">
         <v>93.83</v>
       </c>
-      <c r="N25" s="36"/>
+      <c r="N25" s="36">
+        <v>93.86</v>
+      </c>
       <c r="O25" s="39"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.5">
@@ -14257,6 +14259,9 @@
       <c r="L26">
         <v>96.76</v>
       </c>
+      <c r="M26">
+        <v>93.65</v>
+      </c>
       <c r="O26" s="39"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.5">
@@ -14296,7 +14301,12 @@
       <c r="L27">
         <v>94.06</v>
       </c>
-      <c r="O27" s="39"/>
+      <c r="M27">
+        <v>93.65</v>
+      </c>
+      <c r="O27" s="39">
+        <v>94.44</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A28" s="31" t="s">
@@ -14335,8 +14345,12 @@
       <c r="L28" s="12">
         <v>96.17</v>
       </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="M28" s="12">
+        <v>96.82</v>
+      </c>
+      <c r="N28" s="12">
+        <v>96.7</v>
+      </c>
       <c r="O28" s="39">
         <v>94.72</v>
       </c>
@@ -14380,6 +14394,9 @@
       </c>
       <c r="M29">
         <v>95.88</v>
+      </c>
+      <c r="N29">
+        <v>97.18</v>
       </c>
       <c r="O29" s="39">
         <v>96.92</v>

--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB64F00-7F57-4563-99C8-1606081BC5F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4160B56D-BB45-46DD-819B-FB7766BE00F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="history" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>M5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,18 @@
     <t>s22(bigru)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>s11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -372,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,12 +436,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -560,13 +566,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4343,3575 +4348,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Figure 3.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Accuracy</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> of one trace with different training set size</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>train set ratio=0.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$Q$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$Q$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>95.66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>95.71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>95.98</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>95.83</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95.77</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>95.97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-341D-4271-965E-AB55D34FCDC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>train set ratio=1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$Q$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$Q$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>95.73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95.71</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95.71</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>95.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>95.88</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>95.79</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>95.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-341D-4271-965E-AB55D34FCDC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="791248696"/>
-        <c:axId val="791250008"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="791248696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-                  <a:t>history</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-                  <a:t>length</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="791250008"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="791250008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>accuracy</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>(%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.4020232873597183E-2"/>
-              <c:y val="0.3902927238261884"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="791248696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Figure 1. Accuracy of 10 traces</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trace 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$6:$R$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>99.99</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>99.99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6477-44E7-AD1E-5BF00251C1E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trace 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$7:$R$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>98.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>98.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>98.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>98.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>99.57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>98.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>98.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>98.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>98.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>98.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>98.08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>98.08</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>98.08</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6477-44E7-AD1E-5BF00251C1E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trace 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$8:$R$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>96.28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96.28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>96.28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99.24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>99.23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>99.24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>99.23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99.23</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>99.24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99.24</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>99.24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>99.23</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>99.24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>99.21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6477-44E7-AD1E-5BF00251C1E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trace 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$9:$R$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>99.49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99.58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>99.51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>99.55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>99.59</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99.48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>99.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99.51</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>99.57</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>99.59</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>99.52</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>99.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6477-44E7-AD1E-5BF00251C1E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trace 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$10:$R$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>97.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>97.69</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.65</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97.69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>97.57</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97.64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>97.63</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>97.69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>97.62</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>97.59</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>97.69</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>97.64</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>97.62</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>97.64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6477-44E7-AD1E-5BF00251C1E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trace 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$11:$R$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>71.260000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.069999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>69.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76.510000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76.91</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>76.59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>77.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>73.41</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>72.38</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>72.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>74.010000000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>75.55</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>67.510000000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>57.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6477-44E7-AD1E-5BF00251C1E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trace 7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$12:$R$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>99.58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>91.76</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99.57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>92.73</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.46</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>99.55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>99.15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>99.59</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>93.23</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>91.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>92.93</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>99.54</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>92.93</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>99.13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>99.36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6477-44E7-AD1E-5BF00251C1E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trace 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$13:$R$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>95.66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>95.71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>95.98</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>95.83</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95.77</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>95.97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6477-44E7-AD1E-5BF00251C1E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trace 9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$14:$R$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>89.54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91.33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>91.38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91.37</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91.34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>91.38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>91.33</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91.33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>91.35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91.35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>91.34</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>91.36</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>91.36</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>91.34</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>91.36</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>91.34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6477-44E7-AD1E-5BF00251C1E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trace 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$15:$R$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>91.27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91.58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>91.47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91.47</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>91.54</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>91.36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91.22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>91.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91.41</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>91.51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>91.43</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>91.16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>91.47</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>91.35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>91.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-6477-44E7-AD1E-5BF00251C1E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="787209008"/>
-        <c:axId val="787203760"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="787209008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-                  <a:t>history length</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.46423590734596132"/>
-              <c:y val="0.79611975640017196"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="787203760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="787203760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="40"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-                  <a:t>Accuracy</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-                  <a:t>(%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="3.0431474839691337E-2"/>
-              <c:y val="0.42208454633181153"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="787209008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Figure 2. Accuracy of 5 RNN models(on one trace)</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>basic RNN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$32:$J$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$33:$J$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>95.66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95.77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95.97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D528-4848-81E7-47FDEDD2414C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LSTM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$32:$J$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$34:$J$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>95.73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>96.33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>96.34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>96.27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>96.27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>96.66</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D528-4848-81E7-47FDEDD2414C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GRU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$32:$J$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$35:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>95.72</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>96.22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95.93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>96.57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>96.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97.19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>96.84</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D528-4848-81E7-47FDEDD2414C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>biGRU + attention</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$32:$J$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$36:$J$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>95.63</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95.88</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95.45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95.65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>94.82</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>96.42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>96.88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D528-4848-81E7-47FDEDD2414C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>biGRU </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$32:$J$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$37:$J$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>93.44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>93.64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>94.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>94.42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>94.55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>94.46</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>94.68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D528-4848-81E7-47FDEDD2414C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="797161000"/>
-        <c:axId val="797162640"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="797161000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-                  <a:t>History size</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.46928732991995703"/>
-              <c:y val="0.79583797248273902"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="797162640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="797162640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="93"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-                  <a:t>Accuracy</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-                  <a:t> (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.0373627408830485E-2"/>
-              <c:y val="0.39390775197686279"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="797161000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7953,126 +4389,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9144,1554 +5460,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10766,119 +5534,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>160019</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1421D00D-ACBF-4F87-B76D-A1C4443ECE87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>563879</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21181C3D-A084-40FB-B1DE-25751C431EE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BAD6E12-EDB5-4413-847B-D4DC92D95373}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12090,11 +6745,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF39A649-741C-4A5E-B0C0-91CFF945C22B}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O19" sqref="O19:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -12930,6 +7585,65 @@
         <v>24</v>
       </c>
     </row>
+    <row r="18" spans="15:22" x14ac:dyDescent="0.5">
+      <c r="O18" s="16">
+        <v>8</v>
+      </c>
+      <c r="P18" s="16" t="e">
+        <f>#REF!+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q18" s="16" t="e">
+        <f>#REF!+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R18" s="16" t="e">
+        <f>#REF!+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S18" s="16" t="e">
+        <f>#REF!+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T18" s="16" t="e">
+        <f>#REF!+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U18" s="16" t="e">
+        <f>#REF!+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V18" s="16" t="e">
+        <f t="shared" ref="V18" si="1">U18+8</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="15:22" x14ac:dyDescent="0.5">
+      <c r="O19" s="17">
+        <v>91.33</v>
+      </c>
+      <c r="P19" s="17">
+        <v>91.5</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>91.55</v>
+      </c>
+      <c r="R19" s="17">
+        <v>91.64</v>
+      </c>
+      <c r="S19" s="17">
+        <v>91.52</v>
+      </c>
+      <c r="T19" s="17">
+        <v>91.39</v>
+      </c>
+      <c r="U19" s="17">
+        <v>91.28</v>
+      </c>
+      <c r="V19" s="17">
+        <v>91.62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12944,7 +7658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -13214,9 +7928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449FE37E-F655-4604-BEB8-C483EE37E008}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -14220,7 +8934,7 @@
       <c r="N25" s="36">
         <v>93.86</v>
       </c>
-      <c r="O25" s="39"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" s="31" t="s">
@@ -14262,7 +8976,7 @@
       <c r="M26">
         <v>93.65</v>
       </c>
-      <c r="O26" s="39"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A27" s="31" t="s">
@@ -14304,7 +9018,7 @@
       <c r="M27">
         <v>93.65</v>
       </c>
-      <c r="O27" s="39">
+      <c r="O27" s="12">
         <v>94.44</v>
       </c>
     </row>
@@ -14351,21 +9065,21 @@
       <c r="N28" s="12">
         <v>96.7</v>
       </c>
-      <c r="O28" s="39">
+      <c r="O28" s="12">
         <v>94.72</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="39">
         <v>93.44</v>
       </c>
       <c r="C29" s="12">
         <v>93.76</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="39">
         <v>93.64</v>
       </c>
       <c r="E29" s="12">
@@ -14398,7 +9112,7 @@
       <c r="N29">
         <v>97.18</v>
       </c>
-      <c r="O29" s="39">
+      <c r="O29" s="12">
         <v>96.92</v>
       </c>
     </row>
@@ -14441,18 +9155,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="K16" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A28" sqref="A28"/>
+      <selection pane="topRight" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.94921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
       <c r="B1" s="16">
         <v>8</v>
       </c>
@@ -15218,8 +9937,10 @@
         <v>91.45</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A32" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="B32" s="30">
         <v>8</v>
       </c>
@@ -15247,8 +9968,20 @@
       <c r="J32" s="30">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K32" s="30">
+        <v>144</v>
+      </c>
+      <c r="L32" s="30">
+        <v>160</v>
+      </c>
+      <c r="M32" s="30">
+        <v>176</v>
+      </c>
+      <c r="N32" s="30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" s="31" t="s">
         <v>67</v>
       </c>
@@ -15279,8 +10012,20 @@
       <c r="J33" s="10">
         <v>95.97</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K33" s="10">
+        <v>95.78</v>
+      </c>
+      <c r="L33" s="10">
+        <v>93.83</v>
+      </c>
+      <c r="M33" s="10">
+        <v>93.86</v>
+      </c>
+      <c r="N33" s="10">
+        <v>95.71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A34" s="31" t="s">
         <v>63</v>
       </c>
@@ -15311,8 +10056,20 @@
       <c r="J34" s="10">
         <v>96.66</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K34" s="6">
+        <v>96.76</v>
+      </c>
+      <c r="L34" s="6">
+        <v>95.7</v>
+      </c>
+      <c r="M34" s="6">
+        <v>95.7</v>
+      </c>
+      <c r="N34" s="10">
+        <v>96.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35" s="31" t="s">
         <v>64</v>
       </c>
@@ -15343,74 +10100,436 @@
       <c r="J35" s="10">
         <v>96.84</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K35" s="6">
+        <v>94.06</v>
+      </c>
+      <c r="L35" s="6">
+        <v>93.65</v>
+      </c>
+      <c r="M35" s="6">
+        <v>96.35</v>
+      </c>
+      <c r="N35" s="10">
+        <v>94.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A36" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="34">
+        <v>93.44</v>
+      </c>
+      <c r="C36" s="10">
+        <v>93.76</v>
+      </c>
+      <c r="D36" s="34">
+        <v>93.64</v>
+      </c>
+      <c r="E36" s="10">
+        <v>94.08</v>
+      </c>
+      <c r="F36" s="10">
+        <v>94.4</v>
+      </c>
+      <c r="G36" s="10">
+        <v>94.42</v>
+      </c>
+      <c r="H36" s="10">
+        <v>94.55</v>
+      </c>
+      <c r="I36" s="10">
+        <v>94.46</v>
+      </c>
+      <c r="J36" s="10">
+        <v>94.68</v>
+      </c>
+      <c r="K36" s="6">
+        <v>94.15</v>
+      </c>
+      <c r="L36" s="6">
+        <v>95.88</v>
+      </c>
+      <c r="M36" s="6">
+        <v>97.18</v>
+      </c>
+      <c r="N36" s="10">
+        <v>96.92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A37" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B37" s="10">
         <v>95.63</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C37" s="10">
         <v>95.55</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="10">
         <v>95.15</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="10">
         <v>95.88</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F37" s="10">
         <v>95.45</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="10">
         <v>95.65</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H37" s="10">
         <v>94.82</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I37" s="10">
         <v>96.42</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J37" s="10">
         <v>96.88</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A37" s="41" t="s">
+      <c r="K37" s="10">
+        <v>96.17</v>
+      </c>
+      <c r="L37" s="10">
+        <v>96.82</v>
+      </c>
+      <c r="M37" s="10">
+        <v>96.7</v>
+      </c>
+      <c r="N37" s="10">
+        <v>94.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A41" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="30">
+        <v>8</v>
+      </c>
+      <c r="C41" s="30">
+        <v>24</v>
+      </c>
+      <c r="D41" s="30">
+        <v>40</v>
+      </c>
+      <c r="E41" s="30">
+        <v>56</v>
+      </c>
+      <c r="F41" s="30">
+        <v>72</v>
+      </c>
+      <c r="G41" s="30">
+        <v>88</v>
+      </c>
+      <c r="H41" s="30">
+        <v>104</v>
+      </c>
+      <c r="I41" s="30">
+        <v>120</v>
+      </c>
+      <c r="J41" s="30">
+        <v>128</v>
+      </c>
+      <c r="K41" s="30">
+        <v>144</v>
+      </c>
+      <c r="L41" s="30">
+        <v>160</v>
+      </c>
+      <c r="M41" s="30">
+        <v>176</v>
+      </c>
+      <c r="N41" s="30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A42" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="6">
+        <v>71.260000000000005</v>
+      </c>
+      <c r="C42" s="6">
+        <v>69.5</v>
+      </c>
+      <c r="D42" s="6">
+        <v>77.91</v>
+      </c>
+      <c r="E42" s="6">
+        <v>69</v>
+      </c>
+      <c r="F42" s="6">
+        <v>77.06</v>
+      </c>
+      <c r="G42" s="6">
+        <v>72.38</v>
+      </c>
+      <c r="H42" s="6">
+        <v>74.010000000000005</v>
+      </c>
+      <c r="I42" s="6">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="J42" s="6">
+        <v>57.72</v>
+      </c>
+      <c r="K42" s="6">
+        <v>70.89</v>
+      </c>
+      <c r="L42" s="6">
+        <v>77.91</v>
+      </c>
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A43" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="6">
+        <v>72.73</v>
+      </c>
+      <c r="C43" s="6">
+        <v>70.37</v>
+      </c>
+      <c r="D43" s="6">
+        <v>69.72</v>
+      </c>
+      <c r="E43" s="6">
+        <v>72.97</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A44" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="6">
+        <v>69.33</v>
+      </c>
+      <c r="C44" s="6">
+        <v>72.13</v>
+      </c>
+      <c r="D44" s="6">
+        <v>70.94</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A45" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="40">
-        <v>93.44</v>
-      </c>
-      <c r="C37" s="12">
-        <v>93.76</v>
-      </c>
-      <c r="D37" s="40">
-        <v>93.64</v>
-      </c>
-      <c r="E37" s="12">
-        <v>94.08</v>
-      </c>
-      <c r="F37" s="12">
-        <v>94.4</v>
-      </c>
-      <c r="G37" s="12">
-        <v>94.42</v>
-      </c>
-      <c r="H37" s="12">
-        <v>94.55</v>
-      </c>
-      <c r="I37" s="12">
-        <v>94.46</v>
-      </c>
-      <c r="J37" s="12">
-        <v>94.68</v>
-      </c>
+      <c r="B45" s="6">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="C45" s="6">
+        <v>77.27</v>
+      </c>
+      <c r="D45" s="6">
+        <v>70.66</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A46" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="6">
+        <v>77.27</v>
+      </c>
+      <c r="C46" s="6">
+        <v>72.08</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A50" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="30">
+        <v>8</v>
+      </c>
+      <c r="C50" s="30">
+        <v>24</v>
+      </c>
+      <c r="D50" s="30">
+        <v>40</v>
+      </c>
+      <c r="E50" s="30">
+        <v>56</v>
+      </c>
+      <c r="F50" s="30">
+        <v>72</v>
+      </c>
+      <c r="G50" s="30">
+        <v>88</v>
+      </c>
+      <c r="H50" s="30">
+        <v>104</v>
+      </c>
+      <c r="I50" s="30">
+        <v>120</v>
+      </c>
+      <c r="J50" s="30">
+        <v>128</v>
+      </c>
+      <c r="K50" s="30">
+        <v>144</v>
+      </c>
+      <c r="L50" s="30">
+        <v>160</v>
+      </c>
+      <c r="M50" s="30">
+        <v>176</v>
+      </c>
+      <c r="N50" s="30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A51" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="17">
+        <v>91.33</v>
+      </c>
+      <c r="C51" s="17">
+        <v>91.5</v>
+      </c>
+      <c r="D51" s="17">
+        <v>91.55</v>
+      </c>
+      <c r="E51" s="17">
+        <v>91.64</v>
+      </c>
+      <c r="F51" s="17">
+        <v>91.52</v>
+      </c>
+      <c r="G51" s="17">
+        <v>91.39</v>
+      </c>
+      <c r="H51" s="17">
+        <v>91.28</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A52" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A53" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A54" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A55" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4160B56D-BB45-46DD-819B-FB7766BE00F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C76F19B-D943-44F8-A908-511442BE81C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,6 +14,8 @@
     <sheet name="ratio" sheetId="2" r:id="rId4"/>
     <sheet name="official history" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
@@ -497,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -573,6 +575,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9157,10 +9160,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="K58" sqref="K58"/>
+      <selection pane="topRight" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -9981,7 +9984,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A33" s="31" t="s">
         <v>67</v>
       </c>
@@ -10025,7 +10028,7 @@
         <v>95.71</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A34" s="31" t="s">
         <v>63</v>
       </c>
@@ -10069,7 +10072,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A35" s="31" t="s">
         <v>64</v>
       </c>
@@ -10113,7 +10116,7 @@
         <v>94.44</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A36" s="31" t="s">
         <v>66</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>96.92</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A37" s="31" t="s">
         <v>65</v>
       </c>
@@ -10201,7 +10204,7 @@
         <v>94.72</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A41" s="30" t="s">
         <v>70</v>
       </c>
@@ -10242,10 +10245,13 @@
         <v>176</v>
       </c>
       <c r="N41" s="30">
+        <v>192</v>
+      </c>
+      <c r="O41" s="30">
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A42" s="31" t="s">
         <v>67</v>
       </c>
@@ -10282,9 +10288,17 @@
       <c r="L42" s="6">
         <v>77.91</v>
       </c>
-      <c r="M42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="M42" s="6">
+        <v>83.71</v>
+      </c>
+      <c r="N42" s="41">
+        <v>78.41</v>
+      </c>
+      <c r="O42">
+        <v>72.87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A43" s="31" t="s">
         <v>63</v>
       </c>
@@ -10300,17 +10314,24 @@
       <c r="E43" s="6">
         <v>72.97</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="F43" s="6">
+        <v>71.47</v>
+      </c>
+      <c r="G43" s="6">
+        <v>73</v>
+      </c>
+      <c r="H43" s="6">
+        <v>69.290000000000006</v>
+      </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="O43" s="6"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A44" s="31" t="s">
         <v>64</v>
       </c>
@@ -10323,18 +10344,27 @@
       <c r="D44" s="6">
         <v>70.94</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="E44" s="6">
+        <v>74.849999999999994</v>
+      </c>
+      <c r="F44" s="6">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="G44" s="6">
+        <v>73.02</v>
+      </c>
+      <c r="H44" s="6">
+        <v>70.89</v>
+      </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A45" s="31" t="s">
         <v>66</v>
       </c>
@@ -10347,18 +10377,39 @@
       <c r="D45" s="6">
         <v>70.66</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="E45" s="6">
+        <v>77.11</v>
+      </c>
+      <c r="F45" s="6">
+        <v>75.02</v>
+      </c>
+      <c r="G45" s="6">
+        <v>73.56</v>
+      </c>
+      <c r="H45" s="6">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="I45" s="6">
+        <v>77.83</v>
+      </c>
+      <c r="J45" s="6">
+        <v>80.97</v>
+      </c>
+      <c r="K45" s="6">
+        <v>84.27</v>
+      </c>
+      <c r="L45" s="6">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="M45" s="6">
+        <v>79.2</v>
+      </c>
+      <c r="N45" s="6">
+        <v>78.42</v>
+      </c>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A46" s="31" t="s">
         <v>65</v>
       </c>
@@ -10368,10 +10419,18 @@
       <c r="C46" s="6">
         <v>72.08</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="D46" s="6">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="E46" s="6">
+        <v>72.77</v>
+      </c>
+      <c r="F46" s="6">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="G46" s="6">
+        <v>71.599999999999994</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -10379,6 +10438,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50" s="30" t="s">
@@ -10449,9 +10509,15 @@
       <c r="H51" s="17">
         <v>91.28</v>
       </c>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="I51" s="6">
+        <v>91.25</v>
+      </c>
+      <c r="J51" s="6">
+        <v>91.33</v>
+      </c>
+      <c r="K51" s="6">
+        <v>91.3</v>
+      </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -10460,9 +10526,15 @@
       <c r="A52" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="B52" s="6">
+        <v>91.48</v>
+      </c>
+      <c r="C52" s="6">
+        <v>92.22</v>
+      </c>
+      <c r="D52" s="6">
+        <v>92.16</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -10478,8 +10550,12 @@
       <c r="A53" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="6">
+        <v>91.43</v>
+      </c>
+      <c r="C53" s="6">
+        <v>91.78</v>
+      </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -10496,10 +10572,18 @@
       <c r="A54" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="B54" s="6">
+        <v>91.5</v>
+      </c>
+      <c r="C54" s="6">
+        <v>92.17</v>
+      </c>
+      <c r="D54" s="6">
+        <v>92.24</v>
+      </c>
+      <c r="E54" s="6">
+        <v>92.19</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -10514,8 +10598,12 @@
       <c r="A55" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="B55" s="6">
+        <v>91.46</v>
+      </c>
+      <c r="C55" s="6">
+        <v>90.98</v>
+      </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -10531,5 +10619,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64ECD24-4BA9-4377-B96E-24B81D404CC2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC5FEAE-0C66-443F-B4E1-D0E5BC4A5D79}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C76F19B-D943-44F8-A908-511442BE81C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7678DE06-89B4-47B9-9BA7-CB3F4C86E5AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,25 +14,18 @@
     <sheet name="ratio" sheetId="2" r:id="rId4"/>
     <sheet name="official history" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>M5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +303,14 @@
   </si>
   <si>
     <t>m50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic RNN 1 layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6751,8 +6752,8 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O19" sqref="O19:U19"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N9" sqref="N9:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -7931,8 +7932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449FE37E-F655-4604-BEB8-C483EE37E008}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B20" sqref="B20:K20"/>
     </sheetView>
   </sheetViews>
@@ -9158,12 +9159,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="J59" sqref="J59"/>
+      <selection pane="topRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -10204,6 +10205,50 @@
         <v>94.72</v>
       </c>
     </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A38" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>95.73</v>
+      </c>
+      <c r="C38">
+        <v>95.87</v>
+      </c>
+      <c r="D38">
+        <v>96.29</v>
+      </c>
+      <c r="E38">
+        <v>96.49</v>
+      </c>
+      <c r="F38">
+        <v>96.58</v>
+      </c>
+      <c r="G38">
+        <v>97.07</v>
+      </c>
+      <c r="H38">
+        <v>96.95</v>
+      </c>
+      <c r="I38">
+        <v>96.82</v>
+      </c>
+      <c r="J38">
+        <v>96.77</v>
+      </c>
+      <c r="K38">
+        <v>97.04</v>
+      </c>
+      <c r="L38">
+        <v>96.78</v>
+      </c>
+      <c r="M38">
+        <v>96.67</v>
+      </c>
+      <c r="N38">
+        <v>96.75</v>
+      </c>
+    </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A41" s="30" t="s">
         <v>70</v>
@@ -10323,10 +10368,18 @@
       <c r="H43" s="6">
         <v>69.290000000000006</v>
       </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="I43" s="6">
+        <v>73</v>
+      </c>
+      <c r="J43" s="6">
+        <v>71.45</v>
+      </c>
+      <c r="K43" s="6">
+        <v>71.459999999999994</v>
+      </c>
+      <c r="L43" s="6">
+        <v>69.09</v>
+      </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -10356,7 +10409,9 @@
       <c r="H44" s="6">
         <v>70.89</v>
       </c>
-      <c r="I44" s="6"/>
+      <c r="I44" s="6">
+        <v>73.040000000000006</v>
+      </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -10407,7 +10462,9 @@
       <c r="N45" s="6">
         <v>78.42</v>
       </c>
-      <c r="O45" s="6"/>
+      <c r="O45" s="6">
+        <v>73.81</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A46" s="31" t="s">
@@ -10431,7 +10488,9 @@
       <c r="G46" s="6">
         <v>71.599999999999994</v>
       </c>
-      <c r="H46" s="6"/>
+      <c r="H46" s="6">
+        <v>72.38</v>
+      </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -10518,7 +10577,9 @@
       <c r="K51" s="6">
         <v>91.3</v>
       </c>
-      <c r="L51" s="6"/>
+      <c r="L51" s="6">
+        <v>91.58</v>
+      </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
@@ -10556,9 +10617,15 @@
       <c r="C53" s="6">
         <v>91.78</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="D53" s="6">
+        <v>92.25</v>
+      </c>
+      <c r="E53" s="6">
+        <v>91.7</v>
+      </c>
+      <c r="F53" s="6">
+        <v>91.74</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -10584,8 +10651,12 @@
       <c r="E54" s="6">
         <v>92.19</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="F54" s="6">
+        <v>92.28</v>
+      </c>
+      <c r="G54" s="6">
+        <v>92.28</v>
+      </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -10604,7 +10675,9 @@
       <c r="C55" s="6">
         <v>90.98</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="6">
+        <v>91.95</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -10616,35 +10689,143 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A58" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="30">
+        <v>8</v>
+      </c>
+      <c r="C58" s="30">
+        <v>24</v>
+      </c>
+      <c r="D58" s="30">
+        <v>40</v>
+      </c>
+      <c r="E58" s="30">
+        <v>56</v>
+      </c>
+      <c r="F58" s="30">
+        <v>72</v>
+      </c>
+      <c r="G58" s="30">
+        <v>88</v>
+      </c>
+      <c r="H58" s="30">
+        <v>104</v>
+      </c>
+      <c r="I58" s="30">
+        <v>120</v>
+      </c>
+      <c r="J58" s="30">
+        <v>128</v>
+      </c>
+      <c r="K58" s="30">
+        <v>144</v>
+      </c>
+      <c r="L58" s="30">
+        <v>160</v>
+      </c>
+      <c r="M58" s="30">
+        <v>176</v>
+      </c>
+      <c r="N58" s="30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A59" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A60" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A61" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A62" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A63" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64ECD24-4BA9-4377-B96E-24B81D404CC2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC5FEAE-0C66-443F-B4E1-D0E5BC4A5D79}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7678DE06-89B4-47B9-9BA7-CB3F4C86E5AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0315DCD-DDB9-420C-A112-DED81F6745CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9161,10 +9161,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="D40" sqref="D40"/>
+      <selection pane="topRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -10380,8 +10380,12 @@
       <c r="L43" s="6">
         <v>69.09</v>
       </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="M43" s="6">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="N43" s="6">
+        <v>73.02</v>
+      </c>
       <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
@@ -10412,10 +10416,18 @@
       <c r="I44" s="6">
         <v>73.040000000000006</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+      <c r="J44" s="6">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="K44" s="6">
+        <v>73.02</v>
+      </c>
+      <c r="L44" s="6">
+        <v>71.31</v>
+      </c>
+      <c r="M44" s="6">
+        <v>72.209999999999994</v>
+      </c>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
     </row>
@@ -10491,10 +10503,18 @@
       <c r="H46" s="6">
         <v>72.38</v>
       </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="I46" s="6">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="J46" s="6">
+        <v>71.2</v>
+      </c>
+      <c r="K46" s="6">
+        <v>73.02</v>
+      </c>
+      <c r="L46" s="6">
+        <v>68.92</v>
+      </c>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
@@ -10580,8 +10600,12 @@
       <c r="L51" s="6">
         <v>91.58</v>
       </c>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
+      <c r="M51" s="6">
+        <v>91.61</v>
+      </c>
+      <c r="N51" s="6">
+        <v>91.4</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A52" s="31" t="s">
@@ -10596,9 +10620,15 @@
       <c r="D52" s="6">
         <v>92.16</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="E52" s="6">
+        <v>92.31</v>
+      </c>
+      <c r="F52" s="6">
+        <v>92.12</v>
+      </c>
+      <c r="G52" s="6">
+        <v>92.28</v>
+      </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -10626,8 +10656,12 @@
       <c r="F53" s="6">
         <v>91.74</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="G53" s="6">
+        <v>92.25</v>
+      </c>
+      <c r="H53" s="6">
+        <v>92.14</v>
+      </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -10657,9 +10691,15 @@
       <c r="G54" s="6">
         <v>92.28</v>
       </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="H54" s="6">
+        <v>92.24</v>
+      </c>
+      <c r="I54" s="6">
+        <v>92.14</v>
+      </c>
+      <c r="J54" s="6">
+        <v>91.96</v>
+      </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -10678,7 +10718,9 @@
       <c r="D55" s="6">
         <v>91.95</v>
       </c>
-      <c r="E55" s="6"/>
+      <c r="E55" s="6">
+        <v>92.19</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -10737,52 +10779,124 @@
       <c r="A59" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
+      <c r="B59" s="6">
+        <v>69.819999999999993</v>
+      </c>
+      <c r="C59" s="6">
+        <v>41.13</v>
+      </c>
+      <c r="D59" s="6">
+        <v>40.01</v>
+      </c>
+      <c r="E59" s="6">
+        <v>41.67</v>
+      </c>
+      <c r="F59" s="6">
+        <v>64.3</v>
+      </c>
+      <c r="G59" s="6">
+        <v>42.02</v>
+      </c>
+      <c r="H59" s="6">
+        <v>42.33</v>
+      </c>
+      <c r="I59" s="6">
+        <v>69.69</v>
+      </c>
+      <c r="J59" s="6">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="K59" s="6">
+        <v>35.92</v>
+      </c>
+      <c r="L59" s="6">
+        <v>43</v>
+      </c>
+      <c r="M59" s="6">
+        <v>63.87</v>
+      </c>
+      <c r="N59" s="6">
+        <v>41</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A60" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
+      <c r="B60" s="6">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="C60" s="6">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="D60" s="6">
+        <v>41.03</v>
+      </c>
+      <c r="E60" s="6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F60" s="6">
+        <v>41.08</v>
+      </c>
+      <c r="G60" s="6">
+        <v>40.49</v>
+      </c>
+      <c r="H60" s="6">
+        <v>41.02</v>
+      </c>
+      <c r="I60" s="6">
+        <v>42.48</v>
+      </c>
+      <c r="J60" s="6">
+        <v>64.58</v>
+      </c>
+      <c r="K60" s="6">
+        <v>70.3</v>
+      </c>
+      <c r="L60" s="6">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="M60" s="6">
+        <v>43.18</v>
+      </c>
+      <c r="N60" s="6">
+        <v>70.430000000000007</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A61" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
+      <c r="B61" s="6">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="C61" s="6">
+        <v>41.31</v>
+      </c>
+      <c r="D61" s="6">
+        <v>41.16</v>
+      </c>
+      <c r="E61" s="6">
+        <v>41.75</v>
+      </c>
+      <c r="F61" s="6">
+        <v>41.94</v>
+      </c>
+      <c r="G61" s="6">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="H61" s="6">
+        <v>42.41</v>
+      </c>
+      <c r="I61" s="6">
+        <v>42.35</v>
+      </c>
+      <c r="J61" s="6">
+        <v>42.67</v>
+      </c>
+      <c r="K61" s="6">
+        <v>39.450000000000003</v>
+      </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -10791,34 +10905,78 @@
       <c r="A62" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
+      <c r="B62" s="6">
+        <v>40.96</v>
+      </c>
+      <c r="C62" s="6">
+        <v>40.83</v>
+      </c>
+      <c r="D62" s="6">
+        <v>41.08</v>
+      </c>
+      <c r="E62" s="6">
+        <v>41.04</v>
+      </c>
+      <c r="F62" s="6">
+        <v>41.07</v>
+      </c>
+      <c r="G62" s="6">
+        <v>41.04</v>
+      </c>
+      <c r="H62" s="6">
+        <v>41.09</v>
+      </c>
+      <c r="I62" s="6">
+        <v>41.06</v>
+      </c>
+      <c r="J62" s="6">
+        <v>41.07</v>
+      </c>
+      <c r="K62" s="6">
+        <v>41.04</v>
+      </c>
+      <c r="L62" s="6">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="M62" s="6">
+        <v>41.09</v>
+      </c>
       <c r="N62" s="6"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A63" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="B63" s="6">
+        <v>64.39</v>
+      </c>
+      <c r="C63" s="6">
+        <v>70.13</v>
+      </c>
+      <c r="D63" s="6">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="E63" s="6">
+        <v>64.17</v>
+      </c>
+      <c r="F63" s="6">
+        <v>64.23</v>
+      </c>
+      <c r="G63" s="6">
+        <v>42.19</v>
+      </c>
+      <c r="H63" s="6">
+        <v>41.09</v>
+      </c>
+      <c r="I63" s="6">
+        <v>67.2</v>
+      </c>
+      <c r="J63" s="6">
+        <v>66.58</v>
+      </c>
+      <c r="K63" s="6">
+        <v>42.05</v>
+      </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>

--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0315DCD-DDB9-420C-A112-DED81F6745CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D05BC9-05BE-4725-9D7C-A6BED12F9902}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="history" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="ratio" sheetId="2" r:id="rId4"/>
     <sheet name="official history" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="同义词" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>M5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +314,30 @@
     <t>s12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>m43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanilla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeseries prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time-based data prediction…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -500,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -577,6 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6752,7 +6778,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N9" sqref="N9:W9"/>
     </sheetView>
   </sheetViews>
@@ -7932,9 +7958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449FE37E-F655-4604-BEB8-C483EE37E008}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20:K20"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -9159,12 +9185,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="F48" sqref="F48"/>
+      <selection pane="topRight" activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -10290,10 +10316,10 @@
         <v>176</v>
       </c>
       <c r="N41" s="30">
+        <v>256</v>
+      </c>
+      <c r="O41" s="30">
         <v>192</v>
-      </c>
-      <c r="O41" s="30">
-        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.5">
@@ -10336,11 +10362,11 @@
       <c r="M42" s="6">
         <v>83.71</v>
       </c>
-      <c r="N42" s="41">
+      <c r="N42">
+        <v>72.87</v>
+      </c>
+      <c r="O42" s="41">
         <v>78.41</v>
-      </c>
-      <c r="O42">
-        <v>72.87</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
@@ -10384,9 +10410,11 @@
         <v>72.989999999999995</v>
       </c>
       <c r="N43" s="6">
+        <v>72.959999999999994</v>
+      </c>
+      <c r="O43" s="6">
         <v>73.02</v>
       </c>
-      <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A44" s="31" t="s">
@@ -10428,7 +10456,9 @@
       <c r="M44" s="6">
         <v>72.209999999999994</v>
       </c>
-      <c r="N44" s="6"/>
+      <c r="N44" s="6">
+        <v>72.989999999999995</v>
+      </c>
       <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
@@ -10472,10 +10502,10 @@
         <v>79.2</v>
       </c>
       <c r="N45" s="6">
+        <v>73.81</v>
+      </c>
+      <c r="O45" s="6">
         <v>78.42</v>
-      </c>
-      <c r="O45" s="6">
-        <v>73.81</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
@@ -10515,7 +10545,9 @@
       <c r="L46" s="6">
         <v>68.92</v>
       </c>
-      <c r="M46" s="6"/>
+      <c r="M46" s="6">
+        <v>73.03</v>
+      </c>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
     </row>
@@ -10629,7 +10661,9 @@
       <c r="G52" s="6">
         <v>92.28</v>
       </c>
-      <c r="H52" s="6"/>
+      <c r="H52" s="6">
+        <v>92.16</v>
+      </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -10662,7 +10696,9 @@
       <c r="H53" s="6">
         <v>92.14</v>
       </c>
-      <c r="I53" s="6"/>
+      <c r="I53" s="6">
+        <v>92.11</v>
+      </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -10700,8 +10736,12 @@
       <c r="J54" s="6">
         <v>91.96</v>
       </c>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="K54" s="6">
+        <v>92.23</v>
+      </c>
+      <c r="L54" s="6">
+        <v>92.18</v>
+      </c>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
@@ -10721,7 +10761,9 @@
       <c r="E55" s="6">
         <v>92.19</v>
       </c>
-      <c r="F55" s="6"/>
+      <c r="F55" s="6">
+        <v>92.2</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -10897,9 +10939,15 @@
       <c r="K61" s="6">
         <v>39.450000000000003</v>
       </c>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
+      <c r="L61" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="M61" s="6">
+        <v>43.3</v>
+      </c>
+      <c r="N61" s="6">
+        <v>44.31</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A62" s="31" t="s">
@@ -10941,7 +10989,9 @@
       <c r="M62" s="6">
         <v>41.09</v>
       </c>
-      <c r="N62" s="6"/>
+      <c r="N62" s="6">
+        <v>41.01</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A63" s="31" t="s">
@@ -10977,13 +11027,245 @@
       <c r="K63" s="6">
         <v>42.05</v>
       </c>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
+      <c r="L63" s="6">
+        <v>70.02</v>
+      </c>
+      <c r="M63" s="6">
+        <v>68.69</v>
+      </c>
+      <c r="N63" s="6">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A66" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="30">
+        <v>8</v>
+      </c>
+      <c r="C66" s="30">
+        <v>24</v>
+      </c>
+      <c r="D66" s="30">
+        <v>40</v>
+      </c>
+      <c r="E66" s="30">
+        <v>56</v>
+      </c>
+      <c r="F66" s="30">
+        <v>72</v>
+      </c>
+      <c r="G66" s="30">
+        <v>88</v>
+      </c>
+      <c r="H66" s="30">
+        <v>104</v>
+      </c>
+      <c r="I66" s="30">
+        <v>120</v>
+      </c>
+      <c r="J66" s="30">
+        <v>128</v>
+      </c>
+      <c r="K66" s="30">
+        <v>144</v>
+      </c>
+      <c r="L66" s="30">
+        <v>160</v>
+      </c>
+      <c r="M66" s="30">
+        <v>176</v>
+      </c>
+      <c r="N66" s="30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A67" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="17">
+        <v>89.54</v>
+      </c>
+      <c r="C67" s="17">
+        <v>91.38</v>
+      </c>
+      <c r="D67" s="17">
+        <v>91.34</v>
+      </c>
+      <c r="E67" s="17">
+        <v>91.33</v>
+      </c>
+      <c r="F67" s="17">
+        <v>91.35</v>
+      </c>
+      <c r="G67" s="17">
+        <v>91.34</v>
+      </c>
+      <c r="H67" s="17">
+        <v>91.36</v>
+      </c>
+      <c r="I67" s="17">
+        <v>91.36</v>
+      </c>
+      <c r="J67" s="17">
+        <v>91.34</v>
+      </c>
+      <c r="K67" s="6">
+        <v>91.33</v>
+      </c>
+      <c r="L67" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A68" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="6">
+        <v>89.6</v>
+      </c>
+      <c r="C68" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="D68" s="6">
+        <v>91.32</v>
+      </c>
+      <c r="E68" s="6">
+        <v>91.39</v>
+      </c>
+      <c r="F68" s="6">
+        <v>91.33</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A69" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="6">
+        <v>89.61</v>
+      </c>
+      <c r="C69" s="6">
+        <v>91.4</v>
+      </c>
+      <c r="D69" s="6">
+        <v>91.34</v>
+      </c>
+      <c r="E69" s="6">
+        <v>91.36</v>
+      </c>
+      <c r="F69" s="6">
+        <v>91.37</v>
+      </c>
+      <c r="G69" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A70" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="6">
+        <v>89.6</v>
+      </c>
+      <c r="C70" s="6">
+        <v>91.4</v>
+      </c>
+      <c r="D70" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="E70" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="F70" s="6">
+        <v>91.52</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A71" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA74E3-F709-40FE-A75E-74143B5C2285}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D05BC9-05BE-4725-9D7C-A6BED12F9902}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD6E27-229F-4290-A004-8C1F1C4F164D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="history" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
     <sheet name="同义词" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017" calcMode="manual"/>
+  <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
   <si>
     <t>M5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,37 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trace 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trace 2</t>
-  </si>
-  <si>
-    <t>trace 3</t>
-  </si>
-  <si>
-    <t>trace 4</t>
-  </si>
-  <si>
-    <t>trace 5</t>
-  </si>
-  <si>
-    <t>trace 6</t>
-  </si>
-  <si>
-    <t>trace 7</t>
-  </si>
-  <si>
-    <t>trace 8</t>
-  </si>
-  <si>
-    <t>trace 9</t>
-  </si>
-  <si>
-    <t>trace 10</t>
-  </si>
-  <si>
     <t>s11(bigru,attention)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +301,22 @@
   </si>
   <si>
     <t>time-based data prediction…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anticipate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +454,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -525,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -603,6 +590,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4378,6 +4370,3519 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>s12</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basic RNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$22:$N$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$22:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>69.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDBC-4F16-8ED0-EFFDACCDD313}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$23:$N$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDBC-4F16-8ED0-EFFDACCDD313}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$24:$N$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>64.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FDBC-4F16-8ED0-EFFDACCDD313}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biGRU </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$25:$N$25</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FDBC-4F16-8ED0-EFFDACCDD313}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biGRU + attention</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$26:$N$26</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$26:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>64.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FDBC-4F16-8ED0-EFFDACCDD313}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="608237352"/>
+        <c:axId val="608238336"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>s12</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$21:$M$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$21:$M$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-FDBC-4F16-8ED0-EFFDACCDD313}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="608237352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608238336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608238336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608237352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>s11</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45585361998381135"/>
+          <c:y val="2.6431714394295411E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basic RNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$33:$N$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>95.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F79-4610-A768-EEE607AAEE17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$34:$N$34</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$34:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>95.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6F79-4610-A768-EEE607AAEE17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$35:$N$35</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$35:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>95.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6F79-4610-A768-EEE607AAEE17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biGRU </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$36:$N$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$36:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>93.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6F79-4610-A768-EEE607AAEE17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biGRU + attention</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$37:$N$37</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$37:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>95.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6F79-4610-A768-EEE607AAEE17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="771583592"/>
+        <c:axId val="771585560"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>s11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$32:$M$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$32:$M$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6F79-4610-A768-EEE607AAEE17}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>basic RNN 1 layer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$32:$M$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$38:$N$38</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$38:$M$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>95.73</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>95.87</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>96.29</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>96.49</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>96.58</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>97.07</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>96.95</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>96.82</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>96.77</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>97.04</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>96.78</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>96.67</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-6F79-4610-A768-EEE607AAEE17}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="771583592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771585560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="771585560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="93"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771583592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>s22</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basic RNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$41:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$42:$N$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$42:$M$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>71.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6068-4FFB-9E74-38ED27163E10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$41:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$43:$N$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$43:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>72.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.989999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6068-4FFB-9E74-38ED27163E10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$41:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$44:$N$44</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$44:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>69.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.209999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6068-4FFB-9E74-38ED27163E10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biGRU </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$41:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$45:$N$45</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$45:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>68.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6068-4FFB-9E74-38ED27163E10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biGRU + attention</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$41:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$46:$N$46</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$46:$M$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>77.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6068-4FFB-9E74-38ED27163E10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="617131584"/>
+        <c:axId val="617131912"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>s22</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$41:$M$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$41:$M$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6068-4FFB-9E74-38ED27163E10}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="617131584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617131912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617131912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617131584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4419,6 +7924,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5490,6 +9115,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5564,6 +10737,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>97367</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>416984</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C2782E-8BB8-42EA-B1AC-253F57FC9A75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>516467</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>275165</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29778ADF-B2D9-4C78-B4CD-63EF48C3F166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>55032</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>224366</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66951622-03E2-4E34-9C42-D84F4D292599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6779,7 +12065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9:W9"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -7960,7 +13246,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12:Q12"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -8891,7 +14177,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -9054,7 +14340,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A28" s="31" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B28" s="12">
         <v>95.63</v>
@@ -9101,7 +14387,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A29" s="40" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B29" s="39">
         <v>93.44</v>
@@ -9148,7 +14434,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A31" s="31" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B31" s="6">
         <v>90.29</v>
@@ -9185,12 +14471,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="O53" sqref="O53"/>
+      <selection pane="topRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -9198,9 +14484,9 @@
     <col min="1" max="1" width="15.94921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B1" s="16">
         <v>8</v>
@@ -9265,7 +14551,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
         <v>48</v>
       </c>
@@ -9318,7 +14604,7 @@
         <v>95.97</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -9371,85 +14657,88 @@
         <v>95.98</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B5" s="6"/>
-      <c r="C5" s="16">
+      <c r="C5" s="47">
+        <v>2</v>
+      </c>
+      <c r="D5" s="47">
+        <v>4</v>
+      </c>
+      <c r="E5" s="47">
+        <v>6</v>
+      </c>
+      <c r="F5" s="16">
         <v>8</v>
       </c>
-      <c r="D5" s="16">
-        <f>C5+8</f>
+      <c r="G5" s="16">
+        <f>F5+8</f>
         <v>16</v>
       </c>
-      <c r="E5" s="16">
-        <f t="shared" ref="E5:R5" si="1">D5+8</f>
+      <c r="H5" s="16">
+        <f t="shared" ref="H5:U5" si="1">G5+8</f>
         <v>24</v>
       </c>
-      <c r="F5" s="16">
+      <c r="I5" s="16">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="G5" s="16">
+      <c r="J5" s="16">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H5" s="16">
+      <c r="K5" s="16">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I5" s="16">
+      <c r="L5" s="16">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="J5" s="16">
+      <c r="M5" s="16">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K5" s="16">
+      <c r="N5" s="16">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="L5" s="16">
+      <c r="O5" s="16">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="M5" s="16">
+      <c r="P5" s="16">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="N5" s="16">
+      <c r="Q5" s="16">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="O5" s="16">
+      <c r="R5" s="16">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="P5" s="16">
+      <c r="S5" s="16">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="T5" s="16">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="R5" s="16">
+      <c r="U5" s="16">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B6" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="6">
-        <v>99.99</v>
-      </c>
-      <c r="D6" s="6">
-        <v>99.99</v>
-      </c>
-      <c r="E6" s="6">
-        <v>99.99</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="6">
         <v>99.99</v>
       </c>
@@ -9489,22 +14778,25 @@
       <c r="R6" s="6">
         <v>99.99</v>
       </c>
+      <c r="S6" s="6">
+        <v>99.99</v>
+      </c>
+      <c r="T6" s="6">
+        <v>99.99</v>
+      </c>
+      <c r="U6" s="6">
+        <v>99.99</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B7" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6">
+        <v>29</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="6">
         <v>98.07</v>
-      </c>
-      <c r="D7" s="6">
-        <v>98.07</v>
-      </c>
-      <c r="E7" s="6">
-        <v>98.08</v>
-      </c>
-      <c r="F7" s="6">
-        <v>98.08</v>
       </c>
       <c r="G7" s="6">
         <v>98.07</v>
@@ -9516,7 +14808,7 @@
         <v>98.08</v>
       </c>
       <c r="J7" s="6">
-        <v>99.57</v>
+        <v>98.07</v>
       </c>
       <c r="K7" s="6">
         <v>98.08</v>
@@ -9525,7 +14817,7 @@
         <v>98.08</v>
       </c>
       <c r="M7" s="6">
-        <v>98.08</v>
+        <v>99.57</v>
       </c>
       <c r="N7" s="6">
         <v>98.08</v>
@@ -9542,37 +14834,40 @@
       <c r="R7" s="6">
         <v>98.08</v>
       </c>
+      <c r="S7" s="6">
+        <v>98.08</v>
+      </c>
+      <c r="T7" s="6">
+        <v>98.08</v>
+      </c>
+      <c r="U7" s="6">
+        <v>98.08</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B8" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="6">
+        <v>36</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="6">
         <v>96.28</v>
       </c>
-      <c r="D8" s="6">
+      <c r="G8" s="6">
         <v>96.28</v>
       </c>
-      <c r="E8" s="6">
+      <c r="H8" s="6">
         <v>96.28</v>
       </c>
-      <c r="F8" s="6">
+      <c r="I8" s="6">
         <v>99.24</v>
-      </c>
-      <c r="G8" s="6">
-        <v>99.24</v>
-      </c>
-      <c r="H8" s="6">
-        <v>99.24</v>
-      </c>
-      <c r="I8" s="6">
-        <v>99.23</v>
       </c>
       <c r="J8" s="6">
         <v>99.24</v>
       </c>
       <c r="K8" s="6">
-        <v>99.23</v>
+        <v>99.24</v>
       </c>
       <c r="L8" s="6">
         <v>99.23</v>
@@ -9581,328 +14876,346 @@
         <v>99.24</v>
       </c>
       <c r="N8" s="6">
+        <v>99.23</v>
+      </c>
+      <c r="O8" s="6">
+        <v>99.23</v>
+      </c>
+      <c r="P8" s="6">
         <v>99.24</v>
-      </c>
-      <c r="O8" s="6">
-        <v>99.24</v>
-      </c>
-      <c r="P8" s="6">
-        <v>99.23</v>
       </c>
       <c r="Q8" s="6">
         <v>99.24</v>
       </c>
       <c r="R8" s="6">
+        <v>99.24</v>
+      </c>
+      <c r="S8" s="6">
+        <v>99.23</v>
+      </c>
+      <c r="T8" s="6">
+        <v>99.24</v>
+      </c>
+      <c r="U8" s="6">
         <v>99.21</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B9" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="6">
+        <v>30</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="6">
         <v>99.49</v>
       </c>
-      <c r="D9" s="6">
+      <c r="G9" s="6">
         <v>99.65</v>
       </c>
-      <c r="E9" s="6">
+      <c r="H9" s="6">
         <v>99.52</v>
       </c>
-      <c r="F9" s="6">
+      <c r="I9" s="6">
         <v>99.6</v>
       </c>
-      <c r="G9" s="6">
+      <c r="J9" s="6">
         <v>99.58</v>
       </c>
-      <c r="H9" s="6">
+      <c r="K9" s="6">
         <v>99.6</v>
       </c>
-      <c r="I9" s="6">
+      <c r="L9" s="6">
         <v>99.51</v>
       </c>
-      <c r="J9" s="6">
+      <c r="M9" s="6">
         <v>99.55</v>
       </c>
-      <c r="K9" s="6">
+      <c r="N9" s="6">
         <v>99.59</v>
       </c>
-      <c r="L9" s="6">
+      <c r="O9" s="6">
         <v>99.48</v>
       </c>
-      <c r="M9" s="6">
+      <c r="P9" s="6">
         <v>99.6</v>
       </c>
-      <c r="N9" s="6">
+      <c r="Q9" s="6">
         <v>99.51</v>
       </c>
-      <c r="O9" s="6">
+      <c r="R9" s="6">
         <v>99.57</v>
       </c>
-      <c r="P9" s="6">
+      <c r="S9" s="6">
         <v>99.59</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="T9" s="6">
         <v>99.52</v>
       </c>
-      <c r="R9" s="6">
+      <c r="U9" s="6">
         <v>99.45</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B10" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="6">
+        <v>31</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="6">
         <v>97.64</v>
       </c>
-      <c r="D10" s="6">
+      <c r="G10" s="6">
         <v>97.64</v>
       </c>
-      <c r="E10" s="6">
+      <c r="H10" s="6">
         <v>97.69</v>
       </c>
-      <c r="F10" s="6">
+      <c r="I10" s="6">
         <v>97.65</v>
       </c>
-      <c r="G10" s="6">
+      <c r="J10" s="6">
         <v>97.69</v>
       </c>
-      <c r="H10" s="6">
+      <c r="K10" s="6">
         <v>99.06</v>
       </c>
-      <c r="I10" s="6">
+      <c r="L10" s="6">
         <v>97.57</v>
       </c>
-      <c r="J10" s="6">
+      <c r="M10" s="6">
         <v>97.64</v>
       </c>
-      <c r="K10" s="6">
+      <c r="N10" s="6">
         <v>97.63</v>
-      </c>
-      <c r="L10" s="6">
-        <v>97.69</v>
-      </c>
-      <c r="M10" s="28">
-        <v>97.62</v>
-      </c>
-      <c r="N10" s="6">
-        <v>97.59</v>
       </c>
       <c r="O10" s="6">
         <v>97.69</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="28">
+        <v>97.62</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>97.59</v>
+      </c>
+      <c r="R10" s="6">
+        <v>97.69</v>
+      </c>
+      <c r="S10" s="6">
         <v>97.64</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="T10" s="6">
         <v>97.62</v>
       </c>
-      <c r="R10" s="6">
+      <c r="U10" s="6">
         <v>97.64</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B11" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="6">
+        <v>34</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="6">
         <v>71.260000000000005</v>
       </c>
-      <c r="D11" s="6">
+      <c r="G11" s="6">
         <v>74.069999999999993</v>
       </c>
-      <c r="E11" s="6">
+      <c r="H11" s="6">
         <v>69.5</v>
       </c>
-      <c r="F11" s="6">
+      <c r="I11" s="6">
         <v>76.510000000000005</v>
       </c>
-      <c r="G11" s="6">
+      <c r="J11" s="6">
         <v>77.91</v>
       </c>
-      <c r="H11" s="6">
+      <c r="K11" s="6">
         <v>76.91</v>
       </c>
-      <c r="I11" s="6">
+      <c r="L11" s="6">
         <v>69</v>
       </c>
-      <c r="J11" s="6">
+      <c r="M11" s="6">
         <v>76.59</v>
       </c>
-      <c r="K11" s="6">
+      <c r="N11" s="6">
         <v>77.06</v>
       </c>
-      <c r="L11" s="6">
+      <c r="O11" s="6">
         <v>73.41</v>
       </c>
-      <c r="M11" s="6">
+      <c r="P11" s="6">
         <v>72.38</v>
       </c>
-      <c r="N11" s="6">
+      <c r="Q11" s="6">
         <v>72.7</v>
       </c>
-      <c r="O11" s="6">
+      <c r="R11" s="6">
         <v>74.010000000000005</v>
       </c>
-      <c r="P11" s="6">
+      <c r="S11" s="6">
         <v>75.55</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="T11" s="6">
         <v>67.510000000000005</v>
       </c>
-      <c r="R11" s="6">
+      <c r="U11" s="6">
         <v>57.72</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B12" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="6">
+        <v>32</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="6">
         <v>99.58</v>
       </c>
-      <c r="D12" s="6">
+      <c r="G12" s="6">
         <v>99.52</v>
       </c>
-      <c r="E12" s="6">
+      <c r="H12" s="6">
         <v>91.76</v>
       </c>
-      <c r="F12" s="6">
+      <c r="I12" s="6">
         <v>99.57</v>
       </c>
-      <c r="G12" s="6">
+      <c r="J12" s="6">
         <v>92.73</v>
       </c>
-      <c r="H12" s="6">
+      <c r="K12" s="6">
         <v>99.46</v>
       </c>
-      <c r="I12" s="6">
+      <c r="L12" s="6">
         <v>99.55</v>
       </c>
-      <c r="J12" s="6">
+      <c r="M12" s="6">
         <v>99.15</v>
       </c>
-      <c r="K12" s="6">
+      <c r="N12" s="6">
         <v>99.59</v>
       </c>
-      <c r="L12" s="6">
+      <c r="O12" s="6">
         <v>93.23</v>
       </c>
-      <c r="M12" s="6">
+      <c r="P12" s="6">
         <v>91.58</v>
       </c>
-      <c r="N12" s="6">
+      <c r="Q12" s="6">
         <v>92.93</v>
       </c>
-      <c r="O12" s="6">
+      <c r="R12" s="6">
         <v>99.54</v>
       </c>
-      <c r="P12" s="6">
+      <c r="S12" s="6">
         <v>92.93</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="T12" s="6">
         <v>99.13</v>
       </c>
-      <c r="R12" s="6">
+      <c r="U12" s="6">
         <v>99.36</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B13" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="6">
+        <v>14</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="6">
         <v>95.66</v>
       </c>
-      <c r="D13" s="6">
+      <c r="G13" s="6">
         <v>95.66</v>
       </c>
-      <c r="E13" s="6">
+      <c r="H13" s="6">
         <v>95.66</v>
       </c>
-      <c r="F13" s="6">
+      <c r="I13" s="6">
         <v>95.75</v>
       </c>
-      <c r="G13" s="6">
+      <c r="J13" s="6">
         <v>95.72</v>
       </c>
-      <c r="H13" s="6">
+      <c r="K13" s="6">
         <v>95.71</v>
-      </c>
-      <c r="I13" s="6">
-        <v>95.72</v>
-      </c>
-      <c r="J13" s="6">
-        <v>95.7</v>
-      </c>
-      <c r="K13" s="6">
-        <v>95.72</v>
       </c>
       <c r="L13" s="6">
         <v>95.72</v>
       </c>
       <c r="M13" s="6">
-        <v>95.71</v>
+        <v>95.7</v>
       </c>
       <c r="N13" s="6">
-        <v>95.98</v>
+        <v>95.72</v>
       </c>
       <c r="O13" s="6">
         <v>95.72</v>
       </c>
       <c r="P13" s="6">
+        <v>95.71</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>95.98</v>
+      </c>
+      <c r="R13" s="6">
+        <v>95.72</v>
+      </c>
+      <c r="S13" s="6">
         <v>95.83</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="T13" s="6">
         <v>95.77</v>
       </c>
-      <c r="R13" s="6">
+      <c r="U13" s="6">
         <v>95.97</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B14" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="17">
+        <v>12</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="17">
         <v>89.54</v>
       </c>
-      <c r="D14" s="17">
+      <c r="G14" s="17">
         <v>91.33</v>
-      </c>
-      <c r="E14" s="17">
-        <v>91.38</v>
-      </c>
-      <c r="F14" s="17">
-        <v>91.37</v>
-      </c>
-      <c r="G14" s="17">
-        <v>91.34</v>
       </c>
       <c r="H14" s="17">
         <v>91.38</v>
       </c>
       <c r="I14" s="17">
+        <v>91.37</v>
+      </c>
+      <c r="J14" s="17">
+        <v>91.34</v>
+      </c>
+      <c r="K14" s="17">
+        <v>91.38</v>
+      </c>
+      <c r="L14" s="17">
         <v>91.33</v>
       </c>
-      <c r="J14" s="17">
+      <c r="M14" s="17">
         <v>91.33</v>
       </c>
-      <c r="K14" s="17">
+      <c r="N14" s="17">
         <v>91.35</v>
       </c>
-      <c r="L14" s="17">
+      <c r="O14" s="17">
         <v>91.35</v>
-      </c>
-      <c r="M14" s="17">
-        <v>91.34</v>
-      </c>
-      <c r="N14" s="17">
-        <v>91.36</v>
-      </c>
-      <c r="O14" s="17">
-        <v>91.36</v>
       </c>
       <c r="P14" s="17">
         <v>91.34</v>
@@ -9911,65 +15224,341 @@
         <v>91.36</v>
       </c>
       <c r="R14" s="17">
+        <v>91.36</v>
+      </c>
+      <c r="S14" s="17">
         <v>91.34</v>
       </c>
+      <c r="T14" s="17">
+        <v>91.36</v>
+      </c>
+      <c r="U14" s="17">
+        <v>91.34</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B15" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="6">
+        <v>19</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="6">
         <v>91.27</v>
       </c>
-      <c r="D15" s="6">
+      <c r="G15" s="6">
         <v>91.58</v>
       </c>
-      <c r="E15" s="6">
+      <c r="H15" s="6">
         <v>91.47</v>
       </c>
-      <c r="F15" s="6">
+      <c r="I15" s="6">
         <v>91.35</v>
       </c>
-      <c r="G15" s="6">
+      <c r="J15" s="6">
         <v>91.47</v>
       </c>
-      <c r="H15" s="6">
+      <c r="K15" s="6">
         <v>91.54</v>
       </c>
-      <c r="I15" s="6">
+      <c r="L15" s="6">
         <v>91.36</v>
       </c>
-      <c r="J15" s="6">
+      <c r="M15" s="6">
         <v>91.22</v>
       </c>
-      <c r="K15" s="6">
+      <c r="N15" s="6">
         <v>91.26</v>
       </c>
-      <c r="L15" s="6">
+      <c r="O15" s="6">
         <v>91.41</v>
       </c>
-      <c r="M15" s="10">
+      <c r="P15" s="10">
         <v>91.51</v>
       </c>
-      <c r="N15" s="6">
+      <c r="Q15" s="6">
         <v>91.43</v>
       </c>
-      <c r="O15" s="6">
+      <c r="R15" s="6">
         <v>91.16</v>
       </c>
-      <c r="P15" s="6">
+      <c r="S15" s="6">
         <v>91.47</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="T15" s="10">
         <v>91.35</v>
       </c>
-      <c r="R15" s="10">
+      <c r="U15" s="10">
         <v>91.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A21" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="30">
+        <v>8</v>
+      </c>
+      <c r="C21" s="30">
+        <v>24</v>
+      </c>
+      <c r="D21" s="30">
+        <v>40</v>
+      </c>
+      <c r="E21" s="30">
+        <v>56</v>
+      </c>
+      <c r="F21" s="30">
+        <v>72</v>
+      </c>
+      <c r="G21" s="30">
+        <v>88</v>
+      </c>
+      <c r="H21" s="30">
+        <v>104</v>
+      </c>
+      <c r="I21" s="30">
+        <v>120</v>
+      </c>
+      <c r="J21" s="30">
+        <v>128</v>
+      </c>
+      <c r="K21" s="30">
+        <v>144</v>
+      </c>
+      <c r="L21" s="30">
+        <v>160</v>
+      </c>
+      <c r="M21" s="30">
+        <v>176</v>
+      </c>
+      <c r="N21" s="30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A22" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="6">
+        <v>69.819999999999993</v>
+      </c>
+      <c r="C22" s="6">
+        <v>41.13</v>
+      </c>
+      <c r="D22" s="6">
+        <v>40.01</v>
+      </c>
+      <c r="E22" s="6">
+        <v>41.67</v>
+      </c>
+      <c r="F22" s="6">
+        <v>64.3</v>
+      </c>
+      <c r="G22" s="6">
+        <v>42.02</v>
+      </c>
+      <c r="H22" s="6">
+        <v>42.33</v>
+      </c>
+      <c r="I22" s="6">
+        <v>69.69</v>
+      </c>
+      <c r="J22" s="6">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="K22" s="6">
+        <v>35.92</v>
+      </c>
+      <c r="L22" s="6">
+        <v>43</v>
+      </c>
+      <c r="M22" s="6">
+        <v>63.87</v>
+      </c>
+      <c r="N22" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="6">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="C23" s="6">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="D23" s="6">
+        <v>41.03</v>
+      </c>
+      <c r="E23" s="6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F23" s="6">
+        <v>41.08</v>
+      </c>
+      <c r="G23" s="6">
+        <v>40.49</v>
+      </c>
+      <c r="H23" s="6">
+        <v>41.02</v>
+      </c>
+      <c r="I23" s="6">
+        <v>42.48</v>
+      </c>
+      <c r="J23" s="6">
+        <v>64.58</v>
+      </c>
+      <c r="K23" s="6">
+        <v>70.3</v>
+      </c>
+      <c r="L23" s="6">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="M23" s="6">
+        <v>43.18</v>
+      </c>
+      <c r="N23" s="6">
+        <v>70.430000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A24" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="6">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="C24" s="6">
+        <v>41.31</v>
+      </c>
+      <c r="D24" s="6">
+        <v>41.16</v>
+      </c>
+      <c r="E24" s="6">
+        <v>41.75</v>
+      </c>
+      <c r="F24" s="6">
+        <v>41.94</v>
+      </c>
+      <c r="G24" s="6">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="H24" s="6">
+        <v>42.41</v>
+      </c>
+      <c r="I24" s="6">
+        <v>42.35</v>
+      </c>
+      <c r="J24" s="6">
+        <v>42.67</v>
+      </c>
+      <c r="K24" s="6">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="L24" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="M24" s="6">
+        <v>43.3</v>
+      </c>
+      <c r="N24" s="6">
+        <v>44.31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A25" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="6">
+        <v>40.96</v>
+      </c>
+      <c r="C25" s="6">
+        <v>40.83</v>
+      </c>
+      <c r="D25" s="6">
+        <v>41.08</v>
+      </c>
+      <c r="E25" s="6">
+        <v>41.04</v>
+      </c>
+      <c r="F25" s="6">
+        <v>41.07</v>
+      </c>
+      <c r="G25" s="6">
+        <v>41.04</v>
+      </c>
+      <c r="H25" s="6">
+        <v>41.09</v>
+      </c>
+      <c r="I25" s="6">
+        <v>41.06</v>
+      </c>
+      <c r="J25" s="6">
+        <v>41.07</v>
+      </c>
+      <c r="K25" s="6">
+        <v>41.04</v>
+      </c>
+      <c r="L25" s="6">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="M25" s="6">
+        <v>41.09</v>
+      </c>
+      <c r="N25" s="6">
+        <v>41.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A26" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="6">
+        <v>64.39</v>
+      </c>
+      <c r="C26" s="6">
+        <v>70.13</v>
+      </c>
+      <c r="D26" s="6">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="E26" s="6">
+        <v>64.17</v>
+      </c>
+      <c r="F26" s="6">
+        <v>64.23</v>
+      </c>
+      <c r="G26" s="6">
+        <v>42.19</v>
+      </c>
+      <c r="H26" s="6">
+        <v>41.09</v>
+      </c>
+      <c r="I26" s="6">
+        <v>67.2</v>
+      </c>
+      <c r="J26" s="6">
+        <v>66.58</v>
+      </c>
+      <c r="K26" s="6">
+        <v>42.05</v>
+      </c>
+      <c r="L26" s="6">
+        <v>70.02</v>
+      </c>
+      <c r="M26" s="6">
+        <v>68.69</v>
+      </c>
+      <c r="N26" s="6">
+        <v>44.2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" s="30" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B32" s="30">
         <v>8</v>
@@ -10013,7 +15602,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A33" s="31" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B33" s="6">
         <v>95.66</v>
@@ -10057,7 +15646,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A34" s="31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B34" s="10">
         <v>95.73</v>
@@ -10101,7 +15690,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A35" s="31" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B35" s="10">
         <v>95.72</v>
@@ -10145,7 +15734,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A36" s="31" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B36" s="34">
         <v>93.44</v>
@@ -10189,7 +15778,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A37" s="31" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B37" s="10">
         <v>95.63</v>
@@ -10233,7 +15822,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A38" s="40" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B38">
         <v>95.73</v>
@@ -10277,7 +15866,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A41" s="30" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B41" s="30">
         <v>8</v>
@@ -10324,7 +15913,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A42" s="31" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B42" s="6">
         <v>71.260000000000005</v>
@@ -10371,7 +15960,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A43" s="31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B43" s="6">
         <v>72.73</v>
@@ -10418,7 +16007,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A44" s="31" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B44" s="6">
         <v>69.33</v>
@@ -10463,7 +16052,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A45" s="31" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B45" s="6">
         <v>68.739999999999995</v>
@@ -10510,7 +16099,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A46" s="31" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B46" s="6">
         <v>77.27</v>
@@ -10548,12 +16137,14 @@
       <c r="M46" s="6">
         <v>73.03</v>
       </c>
-      <c r="N46" s="6"/>
+      <c r="N46" s="6">
+        <v>68.7</v>
+      </c>
       <c r="O46" s="6"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50" s="30" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B50" s="30">
         <v>8</v>
@@ -10591,13 +16182,13 @@
       <c r="M50" s="30">
         <v>176</v>
       </c>
-      <c r="N50" s="30">
+      <c r="N50" s="43">
         <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A51" s="31" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B51" s="17">
         <v>91.33</v>
@@ -10635,13 +16226,13 @@
       <c r="M51" s="6">
         <v>91.61</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="44">
         <v>91.4</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A52" s="31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B52" s="6">
         <v>91.48</v>
@@ -10664,16 +16255,22 @@
       <c r="H52" s="6">
         <v>92.16</v>
       </c>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="I52" s="6">
+        <v>92.22</v>
+      </c>
+      <c r="J52" s="6">
+        <v>92.14</v>
+      </c>
+      <c r="K52" s="6">
+        <v>92.29</v>
+      </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
+      <c r="N52" s="44"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A53" s="31" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B53" s="6">
         <v>91.43</v>
@@ -10699,15 +16296,21 @@
       <c r="I53" s="6">
         <v>92.11</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="J53" s="6">
+        <v>91.82</v>
+      </c>
+      <c r="K53" s="6">
+        <v>92.25</v>
+      </c>
+      <c r="L53" s="6">
+        <v>91.93</v>
+      </c>
       <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
+      <c r="N53" s="44"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A54" s="31" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B54" s="6">
         <v>91.5</v>
@@ -10742,12 +16345,14 @@
       <c r="L54" s="6">
         <v>92.18</v>
       </c>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
+      <c r="M54" s="6">
+        <v>92.3</v>
+      </c>
+      <c r="N54" s="44"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A55" s="31" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B55" s="6">
         <v>91.46</v>
@@ -10764,480 +16369,475 @@
       <c r="F55" s="6">
         <v>92.2</v>
       </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="G55" s="6">
+        <v>92.31</v>
+      </c>
+      <c r="H55" s="6">
+        <v>92.07</v>
+      </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
+      <c r="N55" s="44"/>
+    </row>
+    <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="N56" s="45"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A57" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="30">
+        <v>8</v>
+      </c>
+      <c r="C57" s="30">
+        <v>24</v>
+      </c>
+      <c r="D57" s="30">
+        <v>40</v>
+      </c>
+      <c r="E57" s="30">
+        <v>56</v>
+      </c>
+      <c r="F57" s="30">
+        <v>72</v>
+      </c>
+      <c r="G57" s="30">
+        <v>88</v>
+      </c>
+      <c r="H57" s="30">
+        <v>104</v>
+      </c>
+      <c r="I57" s="30">
+        <v>120</v>
+      </c>
+      <c r="J57" s="30">
+        <v>128</v>
+      </c>
+      <c r="K57" s="30">
+        <v>144</v>
+      </c>
+      <c r="L57" s="30">
+        <v>160</v>
+      </c>
+      <c r="M57" s="30">
+        <v>176</v>
+      </c>
+      <c r="N57" s="43">
+        <v>256</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A58" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="30">
-        <v>8</v>
-      </c>
-      <c r="C58" s="30">
-        <v>24</v>
-      </c>
-      <c r="D58" s="30">
-        <v>40</v>
-      </c>
-      <c r="E58" s="30">
-        <v>56</v>
-      </c>
-      <c r="F58" s="30">
-        <v>72</v>
-      </c>
-      <c r="G58" s="30">
-        <v>88</v>
-      </c>
-      <c r="H58" s="30">
-        <v>104</v>
-      </c>
-      <c r="I58" s="30">
-        <v>120</v>
-      </c>
-      <c r="J58" s="30">
-        <v>128</v>
-      </c>
-      <c r="K58" s="30">
-        <v>144</v>
-      </c>
-      <c r="L58" s="30">
-        <v>160</v>
-      </c>
-      <c r="M58" s="30">
-        <v>176</v>
-      </c>
-      <c r="N58" s="30">
-        <v>256</v>
-      </c>
+      <c r="A58" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17">
+        <v>89.54</v>
+      </c>
+      <c r="C58" s="17">
+        <v>91.38</v>
+      </c>
+      <c r="D58" s="17">
+        <v>91.34</v>
+      </c>
+      <c r="E58" s="17">
+        <v>91.33</v>
+      </c>
+      <c r="F58" s="17">
+        <v>91.35</v>
+      </c>
+      <c r="G58" s="17">
+        <v>91.34</v>
+      </c>
+      <c r="H58" s="17">
+        <v>91.36</v>
+      </c>
+      <c r="I58" s="17">
+        <v>91.36</v>
+      </c>
+      <c r="J58" s="17">
+        <v>91.34</v>
+      </c>
+      <c r="K58" s="6">
+        <v>91.33</v>
+      </c>
+      <c r="L58" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="M58" s="6">
+        <v>91.32</v>
+      </c>
+      <c r="N58" s="44"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A59" s="31" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B59" s="6">
-        <v>69.819999999999993</v>
+        <v>89.6</v>
       </c>
       <c r="C59" s="6">
-        <v>41.13</v>
+        <v>91.35</v>
       </c>
       <c r="D59" s="6">
-        <v>40.01</v>
+        <v>91.32</v>
       </c>
       <c r="E59" s="6">
-        <v>41.67</v>
+        <v>91.39</v>
       </c>
       <c r="F59" s="6">
-        <v>64.3</v>
+        <v>91.33</v>
       </c>
       <c r="G59" s="6">
-        <v>42.02</v>
+        <v>91.39</v>
       </c>
       <c r="H59" s="6">
-        <v>42.33</v>
+        <v>91.35</v>
       </c>
       <c r="I59" s="6">
-        <v>69.69</v>
+        <v>91.36</v>
       </c>
       <c r="J59" s="6">
-        <v>64.650000000000006</v>
+        <v>91.36</v>
       </c>
       <c r="K59" s="6">
-        <v>35.92</v>
+        <v>91.35</v>
       </c>
       <c r="L59" s="6">
-        <v>43</v>
-      </c>
-      <c r="M59" s="6">
-        <v>63.87</v>
-      </c>
-      <c r="N59" s="6">
-        <v>41</v>
-      </c>
+        <v>91.34</v>
+      </c>
+      <c r="M59" s="6"/>
+      <c r="N59" s="44"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A60" s="31" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B60" s="6">
-        <v>70.400000000000006</v>
+        <v>89.61</v>
       </c>
       <c r="C60" s="6">
-        <v>70.239999999999995</v>
+        <v>91.4</v>
       </c>
       <c r="D60" s="6">
-        <v>41.03</v>
+        <v>91.34</v>
       </c>
       <c r="E60" s="6">
-        <v>35.700000000000003</v>
+        <v>91.36</v>
       </c>
       <c r="F60" s="6">
-        <v>41.08</v>
+        <v>91.37</v>
       </c>
       <c r="G60" s="6">
-        <v>40.49</v>
+        <v>91.35</v>
       </c>
       <c r="H60" s="6">
-        <v>41.02</v>
+        <v>91.35</v>
       </c>
       <c r="I60" s="6">
-        <v>42.48</v>
+        <v>91.35</v>
       </c>
       <c r="J60" s="6">
-        <v>64.58</v>
+        <v>91.36</v>
       </c>
       <c r="K60" s="6">
-        <v>70.3</v>
+        <v>91.35</v>
       </c>
       <c r="L60" s="6">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="M60" s="6">
-        <v>43.18</v>
-      </c>
-      <c r="N60" s="6">
-        <v>70.430000000000007</v>
-      </c>
+        <v>91.37</v>
+      </c>
+      <c r="M60" s="6"/>
+      <c r="N60" s="44"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A61" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B61" s="6">
-        <v>64.290000000000006</v>
+        <v>89.6</v>
       </c>
       <c r="C61" s="6">
-        <v>41.31</v>
+        <v>91.4</v>
       </c>
       <c r="D61" s="6">
-        <v>41.16</v>
+        <v>91.35</v>
       </c>
       <c r="E61" s="6">
-        <v>41.75</v>
+        <v>91.35</v>
       </c>
       <c r="F61" s="6">
-        <v>41.94</v>
+        <v>91.52</v>
       </c>
       <c r="G61" s="6">
-        <v>70.260000000000005</v>
+        <v>92.45</v>
       </c>
       <c r="H61" s="6">
-        <v>42.41</v>
+        <v>92.49</v>
       </c>
       <c r="I61" s="6">
-        <v>42.35</v>
+        <v>92.5</v>
       </c>
       <c r="J61" s="6">
-        <v>42.67</v>
+        <v>92.49</v>
       </c>
       <c r="K61" s="6">
-        <v>39.450000000000003</v>
-      </c>
-      <c r="L61" s="6">
-        <v>39.6</v>
-      </c>
-      <c r="M61" s="6">
-        <v>43.3</v>
-      </c>
-      <c r="N61" s="6">
-        <v>44.31</v>
-      </c>
+        <v>92.51</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="44"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A62" s="31" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B62" s="6">
-        <v>40.96</v>
+        <v>89.61</v>
       </c>
       <c r="C62" s="6">
-        <v>40.83</v>
+        <v>91.39</v>
       </c>
       <c r="D62" s="6">
-        <v>41.08</v>
+        <v>91.33</v>
       </c>
       <c r="E62" s="6">
-        <v>41.04</v>
+        <v>91.33</v>
       </c>
       <c r="F62" s="6">
-        <v>41.07</v>
+        <v>91.42</v>
       </c>
       <c r="G62" s="6">
-        <v>41.04</v>
-      </c>
-      <c r="H62" s="6">
-        <v>41.09</v>
-      </c>
-      <c r="I62" s="6">
-        <v>41.06</v>
-      </c>
-      <c r="J62" s="6">
-        <v>41.07</v>
-      </c>
-      <c r="K62" s="6">
-        <v>41.04</v>
-      </c>
-      <c r="L62" s="6">
-        <v>39.869999999999997</v>
-      </c>
-      <c r="M62" s="6">
-        <v>41.09</v>
-      </c>
-      <c r="N62" s="6">
-        <v>41.01</v>
-      </c>
+        <v>91.33</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="44"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A63" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="6">
-        <v>64.39</v>
-      </c>
-      <c r="C63" s="6">
-        <v>70.13</v>
-      </c>
-      <c r="D63" s="6">
-        <v>35.369999999999997</v>
-      </c>
-      <c r="E63" s="6">
-        <v>64.17</v>
-      </c>
-      <c r="F63" s="6">
-        <v>64.23</v>
-      </c>
-      <c r="G63" s="6">
-        <v>42.19</v>
-      </c>
-      <c r="H63" s="6">
-        <v>41.09</v>
-      </c>
-      <c r="I63" s="6">
-        <v>67.2</v>
-      </c>
-      <c r="J63" s="6">
-        <v>66.58</v>
-      </c>
-      <c r="K63" s="6">
-        <v>42.05</v>
-      </c>
-      <c r="L63" s="6">
-        <v>70.02</v>
-      </c>
-      <c r="M63" s="6">
-        <v>68.69</v>
-      </c>
-      <c r="N63" s="6">
-        <v>44.2</v>
-      </c>
+      <c r="N63" s="45"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A64" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="30">
+        <v>8</v>
+      </c>
+      <c r="C64" s="30">
+        <v>24</v>
+      </c>
+      <c r="D64" s="30">
+        <v>40</v>
+      </c>
+      <c r="E64" s="30">
+        <v>56</v>
+      </c>
+      <c r="F64" s="30">
+        <v>72</v>
+      </c>
+      <c r="G64" s="30">
+        <v>88</v>
+      </c>
+      <c r="H64" s="30">
+        <v>104</v>
+      </c>
+      <c r="I64" s="30">
+        <v>120</v>
+      </c>
+      <c r="J64" s="30">
+        <v>128</v>
+      </c>
+      <c r="K64" s="30">
+        <v>144</v>
+      </c>
+      <c r="L64" s="30">
+        <v>160</v>
+      </c>
+      <c r="M64" s="30">
+        <v>176</v>
+      </c>
+      <c r="N64" s="43">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A65" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="6">
+        <v>97.64</v>
+      </c>
+      <c r="C65" s="6">
+        <v>97.69</v>
+      </c>
+      <c r="D65" s="6">
+        <v>97.69</v>
+      </c>
+      <c r="E65" s="6">
+        <v>97.57</v>
+      </c>
+      <c r="F65" s="6">
+        <v>97.63</v>
+      </c>
+      <c r="G65" s="6">
+        <v>97.62</v>
+      </c>
+      <c r="H65" s="6">
+        <v>97.69</v>
+      </c>
+      <c r="I65" s="6">
+        <v>97.62</v>
+      </c>
+      <c r="J65" s="6">
+        <v>97.64</v>
+      </c>
+      <c r="K65" s="6">
+        <v>97.57</v>
+      </c>
+      <c r="L65" s="6">
+        <v>97.62</v>
+      </c>
+      <c r="M65" s="6"/>
+      <c r="N65" s="44"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A66" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="30">
-        <v>8</v>
-      </c>
-      <c r="C66" s="30">
-        <v>24</v>
-      </c>
-      <c r="D66" s="30">
-        <v>40</v>
-      </c>
-      <c r="E66" s="30">
-        <v>56</v>
-      </c>
-      <c r="F66" s="30">
-        <v>72</v>
-      </c>
-      <c r="G66" s="30">
-        <v>88</v>
-      </c>
-      <c r="H66" s="30">
-        <v>104</v>
-      </c>
-      <c r="I66" s="30">
-        <v>120</v>
-      </c>
-      <c r="J66" s="30">
-        <v>128</v>
-      </c>
-      <c r="K66" s="30">
-        <v>144</v>
-      </c>
-      <c r="L66" s="30">
-        <v>160</v>
-      </c>
-      <c r="M66" s="30">
-        <v>176</v>
-      </c>
-      <c r="N66" s="30">
-        <v>256</v>
-      </c>
+      <c r="A66" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="6">
+        <v>97.69</v>
+      </c>
+      <c r="C66" s="6">
+        <v>97.74</v>
+      </c>
+      <c r="D66" s="6">
+        <v>97.88</v>
+      </c>
+      <c r="E66" s="6">
+        <v>99.67</v>
+      </c>
+      <c r="F66" s="6">
+        <v>99.71</v>
+      </c>
+      <c r="G66" s="6">
+        <v>99.58</v>
+      </c>
+      <c r="H66" s="6">
+        <v>99.67</v>
+      </c>
+      <c r="I66" s="6">
+        <v>99.71</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="44"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A67" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="17">
-        <v>89.54</v>
-      </c>
-      <c r="C67" s="17">
-        <v>91.38</v>
-      </c>
-      <c r="D67" s="17">
-        <v>91.34</v>
-      </c>
-      <c r="E67" s="17">
-        <v>91.33</v>
-      </c>
-      <c r="F67" s="17">
-        <v>91.35</v>
-      </c>
-      <c r="G67" s="17">
-        <v>91.34</v>
-      </c>
-      <c r="H67" s="17">
-        <v>91.36</v>
-      </c>
-      <c r="I67" s="17">
-        <v>91.36</v>
-      </c>
-      <c r="J67" s="17">
-        <v>91.34</v>
-      </c>
-      <c r="K67" s="6">
-        <v>91.33</v>
-      </c>
-      <c r="L67" s="6">
-        <v>91.35</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B67" s="6">
+        <v>97.74</v>
+      </c>
+      <c r="C67" s="6">
+        <v>97.61</v>
+      </c>
+      <c r="D67" s="6">
+        <v>97.92</v>
+      </c>
+      <c r="E67" s="6">
+        <v>99.66</v>
+      </c>
+      <c r="F67" s="6">
+        <v>99.62</v>
+      </c>
+      <c r="G67" s="6">
+        <v>99.59</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
       <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
+      <c r="N67" s="44"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A68" s="31" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B68" s="6">
-        <v>89.6</v>
+        <v>97.69</v>
       </c>
       <c r="C68" s="6">
-        <v>91.35</v>
+        <v>97.69</v>
       </c>
       <c r="D68" s="6">
-        <v>91.32</v>
+        <v>97.92</v>
       </c>
       <c r="E68" s="6">
-        <v>91.39</v>
+        <v>99.67</v>
       </c>
       <c r="F68" s="6">
-        <v>91.33</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
+        <v>99.59</v>
+      </c>
+      <c r="G68" s="6">
+        <v>99.64</v>
+      </c>
+      <c r="H68" s="6">
+        <v>99.51</v>
+      </c>
+      <c r="I68" s="6">
+        <v>99.63</v>
+      </c>
+      <c r="J68" s="6">
+        <v>99.66</v>
+      </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
+      <c r="N68" s="44"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A69" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="6">
-        <v>89.61</v>
-      </c>
-      <c r="C69" s="6">
-        <v>91.4</v>
-      </c>
-      <c r="D69" s="6">
-        <v>91.34</v>
-      </c>
-      <c r="E69" s="6">
-        <v>91.36</v>
-      </c>
-      <c r="F69" s="6">
-        <v>91.37</v>
-      </c>
-      <c r="G69" s="6">
-        <v>91.35</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A70" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="6">
-        <v>89.6</v>
-      </c>
-      <c r="C70" s="6">
-        <v>91.4</v>
-      </c>
-      <c r="D70" s="6">
-        <v>91.35</v>
-      </c>
-      <c r="E70" s="6">
-        <v>91.35</v>
-      </c>
-      <c r="F70" s="6">
-        <v>91.52</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A71" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
+      <c r="N69" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA74E3-F709-40FE-A75E-74143B5C2285}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -11247,21 +16847,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="42" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="42" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD6E27-229F-4290-A004-8C1F1C4F164D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F2FD31-923A-4DEF-95DC-EEBFCEA1D8D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14473,10 +14473,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="K48" sqref="K48"/>
+      <selection pane="topRight" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -16264,7 +16264,9 @@
       <c r="K52" s="6">
         <v>92.29</v>
       </c>
-      <c r="L52" s="6"/>
+      <c r="L52" s="6">
+        <v>92.23</v>
+      </c>
       <c r="M52" s="6"/>
       <c r="N52" s="44"/>
     </row>
@@ -16375,7 +16377,9 @@
       <c r="H55" s="6">
         <v>92.07</v>
       </c>
-      <c r="I55" s="6"/>
+      <c r="I55" s="6">
+        <v>91.66</v>
+      </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -16508,7 +16512,9 @@
       <c r="L59" s="6">
         <v>91.34</v>
       </c>
-      <c r="M59" s="6"/>
+      <c r="M59" s="6">
+        <v>91.39</v>
+      </c>
       <c r="N59" s="44"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.5">
@@ -16585,7 +16591,9 @@
       <c r="K61" s="6">
         <v>92.51</v>
       </c>
-      <c r="L61" s="6"/>
+      <c r="L61" s="6">
+        <v>92.45</v>
+      </c>
       <c r="M61" s="6"/>
       <c r="N61" s="44"/>
     </row>
@@ -16611,7 +16619,9 @@
       <c r="G62" s="6">
         <v>91.33</v>
       </c>
-      <c r="H62" s="6"/>
+      <c r="H62" s="6">
+        <v>91.33</v>
+      </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -16703,7 +16713,9 @@
       <c r="L65" s="6">
         <v>97.62</v>
       </c>
-      <c r="M65" s="6"/>
+      <c r="M65" s="6">
+        <v>97.67</v>
+      </c>
       <c r="N65" s="44"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.5">
@@ -16734,9 +16746,15 @@
       <c r="I66" s="6">
         <v>99.71</v>
       </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
+      <c r="J66" s="6">
+        <v>99.48</v>
+      </c>
+      <c r="K66" s="6">
+        <v>99.7</v>
+      </c>
+      <c r="L66" s="6">
+        <v>99.63</v>
+      </c>
       <c r="M66" s="6"/>
       <c r="N66" s="44"/>
     </row>
@@ -16762,11 +16780,17 @@
       <c r="G67" s="6">
         <v>99.59</v>
       </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="H67" s="6">
+        <v>99.41</v>
+      </c>
+      <c r="I67" s="6">
+        <v>99.44</v>
+      </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
+      <c r="L67" s="6">
+        <v>99.49</v>
+      </c>
       <c r="M67" s="6"/>
       <c r="N67" s="44"/>
     </row>
@@ -16801,7 +16825,9 @@
       <c r="J68" s="6">
         <v>99.66</v>
       </c>
-      <c r="K68" s="6"/>
+      <c r="K68" s="6">
+        <v>99.68</v>
+      </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="44"/>
@@ -16837,7 +16863,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>

--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F2FD31-923A-4DEF-95DC-EEBFCEA1D8D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AA6CA9-1F92-418B-9E33-1A5E2FE3C123}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="79">
   <si>
     <t>M5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,29 @@
   </si>
   <si>
     <t>anticipate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>briefly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investigate</t>
+  </si>
+  <si>
+    <t>present</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7883,6 +7906,3035 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>m50</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basic RNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$M$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$M$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>91.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46FB-43E1-83DB-157A2E4737A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$M$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>91.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-46FB-43E1-83DB-157A2E4737A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$M$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$M$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>91.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-46FB-43E1-83DB-157A2E4737A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biGRU </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$M$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$54:$M$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-46FB-43E1-83DB-157A2E4737A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biGRU + attention</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$M$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$M$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>91.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-46FB-43E1-83DB-157A2E4737A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="668322104"/>
+        <c:axId val="668319808"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>m50</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$50:$M$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$50:$M$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-46FB-43E1-83DB-157A2E4737A1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="668322104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668319808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668319808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668322104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>m43</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basic RNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$M$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$58:$M$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>89.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1DC-49D4-B08B-F9BFC5091F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$M$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$M$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D1DC-49D4-B08B-F9BFC5091F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$M$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$60:$M$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>89.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D1DC-49D4-B08B-F9BFC5091F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biGRU </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$M$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$M$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D1DC-49D4-B08B-F9BFC5091F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biGRU + attention</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$M$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$62:$M$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>89.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D1DC-49D4-B08B-F9BFC5091F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="854554592"/>
+        <c:axId val="854554920"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$57</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>m43</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$57:$M$57</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$57:$M$57</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-D1DC-49D4-B08B-F9BFC5091F84}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="854554592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="854554920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="854554920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="89"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="854554592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>lm13</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basic RNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$65:$M$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>97.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D86B-46D1-B0B9-E733057E3D4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$66:$M$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>97.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D86B-46D1-B0B9-E733057E3D4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$67:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>97.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D86B-46D1-B0B9-E733057E3D4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biGRU </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$68:$M$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>97.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D86B-46D1-B0B9-E733057E3D4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biGRU + attention</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$69:$M$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D86B-46D1-B0B9-E733057E3D4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="524088928"/>
+        <c:axId val="663157240"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>lm13</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$64:$M$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$64:$M$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>176</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-D86B-46D1-B0B9-E733057E3D4A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="524088928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663157240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="663157240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="97"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524088928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8083,6 +11135,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -10148,6 +13320,1554 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10850,6 +15570,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>224374</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>162982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978D9273-9208-4734-9DAF-EF9F4066EBBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215908</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>105841</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7392E3A0-BD63-4D39-8E07-F516106F6B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29640</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>2117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>588440</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>78317</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2886B24-4AEA-40E5-9E6D-1906E78B1CC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14473,10 +19301,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="I71" sqref="I71"/>
+      <selection pane="topRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -16860,10 +21688,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA74E3-F709-40FE-A75E-74143B5C2285}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -16871,7 +21699,7 @@
     <col min="1" max="1" width="8.796875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="42" t="s">
         <v>64</v>
       </c>
@@ -16882,7 +21710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="42" t="s">
         <v>67</v>
       </c>
@@ -16890,7 +21718,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="42" t="s">
         <v>70</v>
       </c>
@@ -16899,6 +21727,28 @@
       </c>
       <c r="C5" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="42" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AA6CA9-1F92-418B-9E33-1A5E2FE3C123}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527340E2-D63F-4420-96CE-FBAF81E8D292}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" tabRatio="793" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="history" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="history_new" sheetId="4" r:id="rId3"/>
     <sheet name="ratio" sheetId="2" r:id="rId4"/>
     <sheet name="official history" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
-    <sheet name="同义词" sheetId="7" r:id="rId7"/>
+    <sheet name="USE1" sheetId="6" r:id="rId6"/>
+    <sheet name="USE2" sheetId="8" r:id="rId7"/>
+    <sheet name="同义词" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
   <si>
     <t>M5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +341,30 @@
   </si>
   <si>
     <t>present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4474,7 +4499,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$22</c:f>
+              <c:f>'USE1'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4500,11 +4525,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                    <c15:sqref>'USE1'!$B$21:$N$21</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$21:$M$21</c:f>
+              <c:f>'USE1'!$B$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4552,11 +4577,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$22:$N$22</c15:sqref>
+                    <c15:sqref>'USE1'!$B$22:$N$22</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$22:$M$22</c:f>
+              <c:f>'USE1'!$B$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4611,7 +4636,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
+              <c:f>'USE1'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4637,11 +4662,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                    <c15:sqref>'USE1'!$B$21:$N$21</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$21:$M$21</c:f>
+              <c:f>'USE1'!$B$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4689,11 +4714,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$23:$N$23</c15:sqref>
+                    <c15:sqref>'USE1'!$B$23:$N$23</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$23:$M$23</c:f>
+              <c:f>'USE1'!$B$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4748,7 +4773,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$24</c:f>
+              <c:f>'USE1'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4774,11 +4799,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                    <c15:sqref>'USE1'!$B$21:$N$21</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$21:$M$21</c:f>
+              <c:f>'USE1'!$B$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4826,11 +4851,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$24:$N$24</c15:sqref>
+                    <c15:sqref>'USE1'!$B$24:$N$24</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$24:$M$24</c:f>
+              <c:f>'USE1'!$B$24:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4885,7 +4910,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$25</c:f>
+              <c:f>'USE1'!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4911,11 +4936,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                    <c15:sqref>'USE1'!$B$21:$N$21</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$21:$M$21</c:f>
+              <c:f>'USE1'!$B$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4963,11 +4988,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$25:$N$25</c15:sqref>
+                    <c15:sqref>'USE1'!$B$25:$N$25</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$25:$M$25</c:f>
+              <c:f>'USE1'!$B$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5022,7 +5047,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$26</c:f>
+              <c:f>'USE1'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5048,11 +5073,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                    <c15:sqref>'USE1'!$B$21:$N$21</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$21:$M$21</c:f>
+              <c:f>'USE1'!$B$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5100,11 +5125,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$26:$N$26</c15:sqref>
+                    <c15:sqref>'USE1'!$B$26:$N$26</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$26:$M$26</c:f>
+              <c:f>'USE1'!$B$26:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5176,7 +5201,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$21</c15:sqref>
+                          <c15:sqref>'USE1'!$A$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5205,10 +5230,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                          <c15:sqref>'USE1'!$B$21:$N$21</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$21:$M$21</c15:sqref>
+                          <c15:sqref>'USE1'!$B$21:$M$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5259,10 +5284,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$21:$N$21</c15:sqref>
+                          <c15:sqref>'USE1'!$B$21:$N$21</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$21:$M$21</c15:sqref>
+                          <c15:sqref>'USE1'!$B$21:$M$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5600,7 +5625,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$33</c:f>
+              <c:f>'USE1'!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5626,11 +5651,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                    <c15:sqref>'USE1'!$B$32:$N$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$32:$M$32</c:f>
+              <c:f>'USE1'!$B$32:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5678,11 +5703,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$33:$N$33</c15:sqref>
+                    <c15:sqref>'USE1'!$B$33:$N$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:f>'USE1'!$B$33:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5737,7 +5762,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$34</c:f>
+              <c:f>'USE1'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5763,11 +5788,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                    <c15:sqref>'USE1'!$B$32:$N$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$32:$M$32</c:f>
+              <c:f>'USE1'!$B$32:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5815,11 +5840,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$34:$N$34</c15:sqref>
+                    <c15:sqref>'USE1'!$B$34:$N$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$34:$M$34</c:f>
+              <c:f>'USE1'!$B$34:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5874,7 +5899,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$35</c:f>
+              <c:f>'USE1'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5900,11 +5925,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                    <c15:sqref>'USE1'!$B$32:$N$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$32:$M$32</c:f>
+              <c:f>'USE1'!$B$32:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5952,11 +5977,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$35:$N$35</c15:sqref>
+                    <c15:sqref>'USE1'!$B$35:$N$35</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$35:$M$35</c:f>
+              <c:f>'USE1'!$B$35:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6011,7 +6036,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$36</c:f>
+              <c:f>'USE1'!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6037,11 +6062,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                    <c15:sqref>'USE1'!$B$32:$N$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$32:$M$32</c:f>
+              <c:f>'USE1'!$B$32:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6089,11 +6114,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$36:$N$36</c15:sqref>
+                    <c15:sqref>'USE1'!$B$36:$N$36</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$36:$M$36</c:f>
+              <c:f>'USE1'!$B$36:$M$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6148,7 +6173,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$37</c:f>
+              <c:f>'USE1'!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6174,11 +6199,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                    <c15:sqref>'USE1'!$B$32:$N$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$32:$M$32</c:f>
+              <c:f>'USE1'!$B$32:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6226,11 +6251,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$37:$N$37</c15:sqref>
+                    <c15:sqref>'USE1'!$B$37:$N$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$37:$M$37</c:f>
+              <c:f>'USE1'!$B$37:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6302,7 +6327,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$32</c15:sqref>
+                          <c15:sqref>'USE1'!$A$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6331,10 +6356,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                          <c15:sqref>'USE1'!$B$32:$N$32</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$32:$M$32</c15:sqref>
+                          <c15:sqref>'USE1'!$B$32:$M$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6385,10 +6410,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                          <c15:sqref>'USE1'!$B$32:$N$32</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$32:$M$32</c15:sqref>
+                          <c15:sqref>'USE1'!$B$32:$M$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6451,7 +6476,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$38</c15:sqref>
+                          <c15:sqref>'USE1'!$A$38</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6482,10 +6507,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$32:$N$32</c15:sqref>
+                          <c15:sqref>'USE1'!$B$32:$N$32</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$32:$M$32</c15:sqref>
+                          <c15:sqref>'USE1'!$B$32:$M$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6536,10 +6561,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$38:$N$38</c15:sqref>
+                          <c15:sqref>'USE1'!$B$38:$N$38</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$38:$M$38</c15:sqref>
+                          <c15:sqref>'USE1'!$B$38:$M$38</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6869,7 +6894,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$42</c:f>
+              <c:f>'USE1'!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6895,11 +6920,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                    <c15:sqref>'USE1'!$B$41:$N$41</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$41:$M$41</c:f>
+              <c:f>'USE1'!$B$41:$M$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6947,11 +6972,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$42:$N$42</c15:sqref>
+                    <c15:sqref>'USE1'!$B$42:$N$42</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$42:$M$42</c:f>
+              <c:f>'USE1'!$B$42:$M$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7006,7 +7031,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$43</c:f>
+              <c:f>'USE1'!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7032,11 +7057,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                    <c15:sqref>'USE1'!$B$41:$N$41</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$41:$M$41</c:f>
+              <c:f>'USE1'!$B$41:$M$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7084,11 +7109,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$43:$N$43</c15:sqref>
+                    <c15:sqref>'USE1'!$B$43:$N$43</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$43:$M$43</c:f>
+              <c:f>'USE1'!$B$43:$M$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7143,7 +7168,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$44</c:f>
+              <c:f>'USE1'!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7169,11 +7194,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                    <c15:sqref>'USE1'!$B$41:$N$41</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$41:$M$41</c:f>
+              <c:f>'USE1'!$B$41:$M$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7221,11 +7246,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$44:$N$44</c15:sqref>
+                    <c15:sqref>'USE1'!$B$44:$N$44</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$44:$M$44</c:f>
+              <c:f>'USE1'!$B$44:$M$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7280,7 +7305,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$45</c:f>
+              <c:f>'USE1'!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7306,11 +7331,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                    <c15:sqref>'USE1'!$B$41:$N$41</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$41:$M$41</c:f>
+              <c:f>'USE1'!$B$41:$M$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7358,11 +7383,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$45:$N$45</c15:sqref>
+                    <c15:sqref>'USE1'!$B$45:$N$45</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$45:$M$45</c:f>
+              <c:f>'USE1'!$B$45:$M$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7417,7 +7442,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$46</c:f>
+              <c:f>'USE1'!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7443,11 +7468,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                    <c15:sqref>'USE1'!$B$41:$N$41</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$41:$M$41</c:f>
+              <c:f>'USE1'!$B$41:$M$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7495,11 +7520,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$46:$N$46</c15:sqref>
+                    <c15:sqref>'USE1'!$B$46:$N$46</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$46:$M$46</c:f>
+              <c:f>'USE1'!$B$46:$M$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7571,7 +7596,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$41</c15:sqref>
+                          <c15:sqref>'USE1'!$A$41</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7600,10 +7625,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                          <c15:sqref>'USE1'!$B$41:$N$41</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$41:$M$41</c15:sqref>
+                          <c15:sqref>'USE1'!$B$41:$M$41</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7654,10 +7679,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$41:$N$41</c15:sqref>
+                          <c15:sqref>'USE1'!$B$41:$N$41</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$41:$M$41</c15:sqref>
+                          <c15:sqref>'USE1'!$B$41:$M$41</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7987,7 +8012,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$51</c:f>
+              <c:f>'USE1'!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8010,7 +8035,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$50:$M$50</c:f>
+              <c:f>'USE1'!$B$50:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8055,7 +8080,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$51:$M$51</c:f>
+              <c:f>'USE1'!$B$51:$M$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8110,7 +8135,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$52</c:f>
+              <c:f>'USE1'!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8133,7 +8158,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$50:$M$50</c:f>
+              <c:f>'USE1'!$B$50:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8178,7 +8203,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$52:$M$52</c:f>
+              <c:f>'USE1'!$B$52:$M$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8230,7 +8255,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$53</c:f>
+              <c:f>'USE1'!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8253,7 +8278,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$50:$M$50</c:f>
+              <c:f>'USE1'!$B$50:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8298,7 +8323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$53:$M$53</c:f>
+              <c:f>'USE1'!$B$53:$M$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8350,7 +8375,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$54</c:f>
+              <c:f>'USE1'!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8373,7 +8398,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$50:$M$50</c:f>
+              <c:f>'USE1'!$B$50:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8418,7 +8443,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$54:$M$54</c:f>
+              <c:f>'USE1'!$B$54:$M$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8473,7 +8498,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$55</c:f>
+              <c:f>'USE1'!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8496,7 +8521,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$50:$M$50</c:f>
+              <c:f>'USE1'!$B$50:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8541,7 +8566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$55:$M$55</c:f>
+              <c:f>'USE1'!$B$55:$M$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8601,7 +8626,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$50</c15:sqref>
+                          <c15:sqref>'USE1'!$A$50</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8630,7 +8655,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$50:$M$50</c15:sqref>
+                          <c15:sqref>'USE1'!$B$50:$M$50</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8681,7 +8706,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$50:$M$50</c15:sqref>
+                          <c15:sqref>'USE1'!$B$50:$M$50</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9009,7 +9034,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$58</c:f>
+              <c:f>'USE1'!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9032,7 +9057,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$57:$M$57</c:f>
+              <c:f>'USE1'!$B$57:$M$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9077,7 +9102,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$58:$M$58</c:f>
+              <c:f>'USE1'!$B$58:$M$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9132,7 +9157,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$59</c:f>
+              <c:f>'USE1'!$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9155,7 +9180,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$57:$M$57</c:f>
+              <c:f>'USE1'!$B$57:$M$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9200,7 +9225,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$59:$M$59</c:f>
+              <c:f>'USE1'!$B$59:$M$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9255,7 +9280,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$60</c:f>
+              <c:f>'USE1'!$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9278,7 +9303,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$57:$M$57</c:f>
+              <c:f>'USE1'!$B$57:$M$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9323,7 +9348,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$60:$M$60</c:f>
+              <c:f>'USE1'!$B$60:$M$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9375,7 +9400,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$61</c:f>
+              <c:f>'USE1'!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9398,7 +9423,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$57:$M$57</c:f>
+              <c:f>'USE1'!$B$57:$M$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9443,7 +9468,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$61:$M$61</c:f>
+              <c:f>'USE1'!$B$61:$M$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9495,7 +9520,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$62</c:f>
+              <c:f>'USE1'!$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9518,7 +9543,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$57:$M$57</c:f>
+              <c:f>'USE1'!$B$57:$M$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9563,7 +9588,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$62:$M$62</c:f>
+              <c:f>'USE1'!$B$62:$M$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9620,7 +9645,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$57</c15:sqref>
+                          <c15:sqref>'USE1'!$A$57</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9649,7 +9674,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$57:$M$57</c15:sqref>
+                          <c15:sqref>'USE1'!$B$57:$M$57</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9700,7 +9725,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$57:$M$57</c15:sqref>
+                          <c15:sqref>'USE1'!$B$57:$M$57</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10029,7 +10054,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$65</c:f>
+              <c:f>'USE1'!$A$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10052,7 +10077,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$64:$M$64</c:f>
+              <c:f>'USE1'!$B$64:$M$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10097,7 +10122,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$65:$M$65</c:f>
+              <c:f>'USE1'!$B$65:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10152,7 +10177,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$66</c:f>
+              <c:f>'USE1'!$A$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10175,7 +10200,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$64:$M$64</c:f>
+              <c:f>'USE1'!$B$64:$M$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10220,7 +10245,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$66:$M$66</c:f>
+              <c:f>'USE1'!$B$66:$M$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10272,7 +10297,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$67</c:f>
+              <c:f>'USE1'!$A$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10295,7 +10320,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$64:$M$64</c:f>
+              <c:f>'USE1'!$B$64:$M$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10340,7 +10365,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$67:$M$67</c:f>
+              <c:f>'USE1'!$B$67:$M$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10367,6 +10392,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.43</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>99.49</c:v>
@@ -10386,7 +10417,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$68</c:f>
+              <c:f>'USE1'!$A$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10409,7 +10440,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$64:$M$64</c:f>
+              <c:f>'USE1'!$B$64:$M$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10454,7 +10485,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$68:$M$68</c:f>
+              <c:f>'USE1'!$B$68:$M$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10503,7 +10534,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$69</c:f>
+              <c:f>'USE1'!$A$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10526,7 +10557,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$64:$M$64</c:f>
+              <c:f>'USE1'!$B$64:$M$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10571,10 +10602,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$69:$M$69</c:f>
+              <c:f>'USE1'!$B$69:$M$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>97.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.67</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10607,7 +10656,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$64</c15:sqref>
+                          <c15:sqref>'USE1'!$A$64</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10636,7 +10685,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$64:$M$64</c15:sqref>
+                          <c15:sqref>'USE1'!$B$64:$M$64</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10687,7 +10736,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$64:$M$64</c15:sqref>
+                          <c15:sqref>'USE1'!$B$64:$M$64</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -16484,7 +16533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B256053D-362C-4A5A-B809-CC808A054FE2}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -16891,9 +16940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF39A649-741C-4A5E-B0C0-91CFF945C22B}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -17802,7 +17851,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B22" sqref="B22"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -18074,7 +18123,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -19299,17 +19348,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="J48" sqref="J48"/>
+      <selection pane="topRight" activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.94921875" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.5">
@@ -21614,8 +21663,12 @@
       <c r="I67" s="6">
         <v>99.44</v>
       </c>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
+      <c r="J67" s="6">
+        <v>99.6</v>
+      </c>
+      <c r="K67" s="6">
+        <v>99.43</v>
+      </c>
       <c r="L67" s="6">
         <v>99.49</v>
       </c>
@@ -21664,12 +21717,24 @@
       <c r="A69" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="B69" s="6">
+        <v>97.61</v>
+      </c>
+      <c r="C69" s="6">
+        <v>97.55</v>
+      </c>
+      <c r="D69" s="6">
+        <v>97.81</v>
+      </c>
+      <c r="E69" s="6">
+        <v>97.48</v>
+      </c>
+      <c r="F69" s="6">
+        <v>97.62</v>
+      </c>
+      <c r="G69" s="6">
+        <v>97.67</v>
+      </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -21677,6 +21742,187 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="44"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A91" s="47"/>
+      <c r="B91" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C91" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D91" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E91" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F91" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G91" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="H91" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="I91" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J91" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="K91" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A92" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="6">
+        <v>91.37</v>
+      </c>
+      <c r="C92" s="6">
+        <v>91.38</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6">
+        <v>92.49</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A93" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" s="6">
+        <v>90.66</v>
+      </c>
+      <c r="C93" s="6">
+        <v>91.08</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6">
+        <v>91.96</v>
+      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A94" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="6">
+        <v>68.06</v>
+      </c>
+      <c r="C94" s="6">
+        <v>94.12</v>
+      </c>
+      <c r="D94" s="6">
+        <v>95.67</v>
+      </c>
+      <c r="E94" s="6">
+        <v>95.56</v>
+      </c>
+      <c r="F94" s="6">
+        <v>95.56</v>
+      </c>
+      <c r="G94" s="6">
+        <v>95.72</v>
+      </c>
+      <c r="H94" s="6">
+        <v>95.69</v>
+      </c>
+      <c r="I94" s="6">
+        <v>95.66</v>
+      </c>
+      <c r="J94" s="6">
+        <v>95.55</v>
+      </c>
+      <c r="K94" s="6">
+        <v>95.74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A95" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95" s="6">
+        <v>70.38</v>
+      </c>
+      <c r="C95" s="6">
+        <v>79.47</v>
+      </c>
+      <c r="D95" s="6">
+        <v>75.12</v>
+      </c>
+      <c r="E95" s="6">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="F95" s="6">
+        <v>75.38</v>
+      </c>
+      <c r="G95" s="6">
+        <v>95.39</v>
+      </c>
+      <c r="H95" s="6">
+        <v>95.24</v>
+      </c>
+      <c r="I95" s="6">
+        <v>96</v>
+      </c>
+      <c r="J95" s="6">
+        <v>94.91</v>
+      </c>
+      <c r="K95" s="6">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A96" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="6">
+        <v>99.48</v>
+      </c>
+      <c r="C96" s="6">
+        <v>99.52</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6">
+        <v>99.66</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A97" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21687,6 +21933,1271 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BECA02-8B85-4884-915D-9CDC8F2EB072}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="10.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="30">
+        <v>8</v>
+      </c>
+      <c r="C1" s="30">
+        <v>24</v>
+      </c>
+      <c r="D1" s="30">
+        <v>40</v>
+      </c>
+      <c r="E1" s="30">
+        <v>56</v>
+      </c>
+      <c r="F1" s="30">
+        <v>72</v>
+      </c>
+      <c r="G1" s="30">
+        <v>88</v>
+      </c>
+      <c r="H1" s="30">
+        <v>104</v>
+      </c>
+      <c r="I1" s="30">
+        <v>120</v>
+      </c>
+      <c r="J1" s="30">
+        <v>128</v>
+      </c>
+      <c r="K1" s="30">
+        <v>144</v>
+      </c>
+      <c r="L1" s="30">
+        <v>160</v>
+      </c>
+      <c r="M1" s="30">
+        <v>176</v>
+      </c>
+      <c r="N1" s="30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6">
+        <v>95.66</v>
+      </c>
+      <c r="C2" s="6">
+        <v>95.66</v>
+      </c>
+      <c r="D2" s="6">
+        <v>95.72</v>
+      </c>
+      <c r="E2" s="6">
+        <v>95.72</v>
+      </c>
+      <c r="F2" s="6">
+        <v>95.72</v>
+      </c>
+      <c r="G2" s="6">
+        <v>95.71</v>
+      </c>
+      <c r="H2" s="6">
+        <v>95.72</v>
+      </c>
+      <c r="I2" s="6">
+        <v>95.77</v>
+      </c>
+      <c r="J2" s="10">
+        <v>95.97</v>
+      </c>
+      <c r="K2" s="10">
+        <v>95.78</v>
+      </c>
+      <c r="L2" s="10">
+        <v>93.83</v>
+      </c>
+      <c r="M2" s="10">
+        <v>93.86</v>
+      </c>
+      <c r="N2" s="10">
+        <v>95.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="10">
+        <v>95.73</v>
+      </c>
+      <c r="C3" s="6">
+        <v>95.84</v>
+      </c>
+      <c r="D3" s="10">
+        <v>96.33</v>
+      </c>
+      <c r="E3" s="6">
+        <v>96.34</v>
+      </c>
+      <c r="F3" s="10">
+        <v>96.27</v>
+      </c>
+      <c r="G3" s="10">
+        <v>96.27</v>
+      </c>
+      <c r="H3" s="10">
+        <v>96.5</v>
+      </c>
+      <c r="I3" s="10">
+        <v>97</v>
+      </c>
+      <c r="J3" s="10">
+        <v>96.66</v>
+      </c>
+      <c r="K3" s="6">
+        <v>96.76</v>
+      </c>
+      <c r="L3" s="6">
+        <v>95.7</v>
+      </c>
+      <c r="M3" s="6">
+        <v>95.7</v>
+      </c>
+      <c r="N3" s="10">
+        <v>96.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A4" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="10">
+        <v>95.72</v>
+      </c>
+      <c r="C4" s="6">
+        <v>96.05</v>
+      </c>
+      <c r="D4" s="10">
+        <v>96.22</v>
+      </c>
+      <c r="E4" s="6">
+        <v>95.93</v>
+      </c>
+      <c r="F4" s="10">
+        <v>96.57</v>
+      </c>
+      <c r="G4" s="10">
+        <v>96.3</v>
+      </c>
+      <c r="H4" s="10">
+        <v>96.13</v>
+      </c>
+      <c r="I4" s="10">
+        <v>97.19</v>
+      </c>
+      <c r="J4" s="10">
+        <v>96.84</v>
+      </c>
+      <c r="K4" s="6">
+        <v>94.06</v>
+      </c>
+      <c r="L4" s="6">
+        <v>93.65</v>
+      </c>
+      <c r="M4" s="6">
+        <v>96.35</v>
+      </c>
+      <c r="N4" s="10">
+        <v>94.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A5" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="34">
+        <v>93.44</v>
+      </c>
+      <c r="C5" s="10">
+        <v>93.76</v>
+      </c>
+      <c r="D5" s="34">
+        <v>93.64</v>
+      </c>
+      <c r="E5" s="10">
+        <v>94.08</v>
+      </c>
+      <c r="F5" s="10">
+        <v>94.4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>94.42</v>
+      </c>
+      <c r="H5" s="10">
+        <v>94.55</v>
+      </c>
+      <c r="I5" s="10">
+        <v>94.46</v>
+      </c>
+      <c r="J5" s="10">
+        <v>94.68</v>
+      </c>
+      <c r="K5" s="6">
+        <v>94.15</v>
+      </c>
+      <c r="L5" s="6">
+        <v>95.88</v>
+      </c>
+      <c r="M5" s="6">
+        <v>97.18</v>
+      </c>
+      <c r="N5" s="10">
+        <v>96.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A6" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="10">
+        <v>95.63</v>
+      </c>
+      <c r="C6" s="10">
+        <v>95.55</v>
+      </c>
+      <c r="D6" s="10">
+        <v>95.15</v>
+      </c>
+      <c r="E6" s="10">
+        <v>95.88</v>
+      </c>
+      <c r="F6" s="10">
+        <v>95.45</v>
+      </c>
+      <c r="G6" s="10">
+        <v>95.65</v>
+      </c>
+      <c r="H6" s="10">
+        <v>94.82</v>
+      </c>
+      <c r="I6" s="10">
+        <v>96.42</v>
+      </c>
+      <c r="J6" s="10">
+        <v>96.88</v>
+      </c>
+      <c r="K6" s="10">
+        <v>96.17</v>
+      </c>
+      <c r="L6" s="10">
+        <v>96.82</v>
+      </c>
+      <c r="M6" s="10">
+        <v>96.7</v>
+      </c>
+      <c r="N6" s="10">
+        <v>94.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="30">
+        <v>8</v>
+      </c>
+      <c r="C9" s="30">
+        <v>24</v>
+      </c>
+      <c r="D9" s="30">
+        <v>40</v>
+      </c>
+      <c r="E9" s="30">
+        <v>56</v>
+      </c>
+      <c r="F9" s="30">
+        <v>72</v>
+      </c>
+      <c r="G9" s="30">
+        <v>88</v>
+      </c>
+      <c r="H9" s="30">
+        <v>104</v>
+      </c>
+      <c r="I9" s="30">
+        <v>120</v>
+      </c>
+      <c r="J9" s="30">
+        <v>128</v>
+      </c>
+      <c r="K9" s="30">
+        <v>144</v>
+      </c>
+      <c r="L9" s="30">
+        <v>160</v>
+      </c>
+      <c r="M9" s="30">
+        <v>176</v>
+      </c>
+      <c r="N9" s="30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A10" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="6">
+        <v>71.260000000000005</v>
+      </c>
+      <c r="C10" s="6">
+        <v>69.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>77.91</v>
+      </c>
+      <c r="E10" s="6">
+        <v>69</v>
+      </c>
+      <c r="F10" s="6">
+        <v>77.06</v>
+      </c>
+      <c r="G10" s="6">
+        <v>72.38</v>
+      </c>
+      <c r="H10" s="6">
+        <v>74.010000000000005</v>
+      </c>
+      <c r="I10" s="6">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="J10" s="6">
+        <v>57.72</v>
+      </c>
+      <c r="K10" s="6">
+        <v>70.89</v>
+      </c>
+      <c r="L10" s="6">
+        <v>77.91</v>
+      </c>
+      <c r="M10" s="6">
+        <v>83.71</v>
+      </c>
+      <c r="N10">
+        <v>72.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6">
+        <v>72.73</v>
+      </c>
+      <c r="C11" s="6">
+        <v>70.37</v>
+      </c>
+      <c r="D11" s="6">
+        <v>69.72</v>
+      </c>
+      <c r="E11" s="6">
+        <v>72.97</v>
+      </c>
+      <c r="F11" s="6">
+        <v>71.47</v>
+      </c>
+      <c r="G11" s="6">
+        <v>73</v>
+      </c>
+      <c r="H11" s="6">
+        <v>69.290000000000006</v>
+      </c>
+      <c r="I11" s="6">
+        <v>73</v>
+      </c>
+      <c r="J11" s="6">
+        <v>71.45</v>
+      </c>
+      <c r="K11" s="6">
+        <v>71.459999999999994</v>
+      </c>
+      <c r="L11" s="6">
+        <v>69.09</v>
+      </c>
+      <c r="M11" s="6">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="N11" s="6">
+        <v>72.959999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="6">
+        <v>69.33</v>
+      </c>
+      <c r="C12" s="6">
+        <v>72.13</v>
+      </c>
+      <c r="D12" s="6">
+        <v>70.94</v>
+      </c>
+      <c r="E12" s="6">
+        <v>74.849999999999994</v>
+      </c>
+      <c r="F12" s="6">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="G12" s="6">
+        <v>73.02</v>
+      </c>
+      <c r="H12" s="6">
+        <v>70.89</v>
+      </c>
+      <c r="I12" s="6">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="J12" s="6">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="K12" s="6">
+        <v>73.02</v>
+      </c>
+      <c r="L12" s="6">
+        <v>71.31</v>
+      </c>
+      <c r="M12" s="6">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="N12" s="6">
+        <v>72.989999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A13" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="C13" s="6">
+        <v>77.27</v>
+      </c>
+      <c r="D13" s="6">
+        <v>70.66</v>
+      </c>
+      <c r="E13" s="6">
+        <v>77.11</v>
+      </c>
+      <c r="F13" s="6">
+        <v>75.02</v>
+      </c>
+      <c r="G13" s="6">
+        <v>73.56</v>
+      </c>
+      <c r="H13" s="6">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="I13" s="6">
+        <v>77.83</v>
+      </c>
+      <c r="J13" s="6">
+        <v>80.97</v>
+      </c>
+      <c r="K13" s="6">
+        <v>84.27</v>
+      </c>
+      <c r="L13" s="6">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="M13" s="6">
+        <v>79.2</v>
+      </c>
+      <c r="N13" s="6">
+        <v>73.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A14" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="6">
+        <v>77.27</v>
+      </c>
+      <c r="C14" s="6">
+        <v>72.08</v>
+      </c>
+      <c r="D14" s="6">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="E14" s="6">
+        <v>72.77</v>
+      </c>
+      <c r="F14" s="6">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="G14" s="6">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="H14" s="6">
+        <v>72.38</v>
+      </c>
+      <c r="I14" s="6">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="J14" s="6">
+        <v>71.2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>73.02</v>
+      </c>
+      <c r="L14" s="6">
+        <v>68.92</v>
+      </c>
+      <c r="M14" s="6">
+        <v>73.03</v>
+      </c>
+      <c r="N14" s="6">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A18" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="30">
+        <v>8</v>
+      </c>
+      <c r="C18" s="30">
+        <v>24</v>
+      </c>
+      <c r="D18" s="30">
+        <v>40</v>
+      </c>
+      <c r="E18" s="30">
+        <v>56</v>
+      </c>
+      <c r="F18" s="30">
+        <v>72</v>
+      </c>
+      <c r="G18" s="30">
+        <v>88</v>
+      </c>
+      <c r="H18" s="30">
+        <v>104</v>
+      </c>
+      <c r="I18" s="30">
+        <v>120</v>
+      </c>
+      <c r="J18" s="30">
+        <v>128</v>
+      </c>
+      <c r="K18" s="30">
+        <v>144</v>
+      </c>
+      <c r="L18" s="30">
+        <v>160</v>
+      </c>
+      <c r="M18" s="30">
+        <v>176</v>
+      </c>
+      <c r="N18" s="30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A19" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="17">
+        <v>91.33</v>
+      </c>
+      <c r="C19" s="17">
+        <v>91.5</v>
+      </c>
+      <c r="D19" s="17">
+        <v>91.55</v>
+      </c>
+      <c r="E19" s="17">
+        <v>91.64</v>
+      </c>
+      <c r="F19" s="17">
+        <v>91.52</v>
+      </c>
+      <c r="G19" s="17">
+        <v>91.39</v>
+      </c>
+      <c r="H19" s="17">
+        <v>91.28</v>
+      </c>
+      <c r="I19" s="6">
+        <v>91.25</v>
+      </c>
+      <c r="J19" s="6">
+        <v>91.33</v>
+      </c>
+      <c r="K19" s="6">
+        <v>91.3</v>
+      </c>
+      <c r="L19" s="6">
+        <v>91.58</v>
+      </c>
+      <c r="M19" s="6">
+        <v>91.61</v>
+      </c>
+      <c r="N19" s="10">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A20" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="6">
+        <v>91.48</v>
+      </c>
+      <c r="C20" s="6">
+        <v>92.22</v>
+      </c>
+      <c r="D20" s="6">
+        <v>92.16</v>
+      </c>
+      <c r="E20" s="6">
+        <v>92.31</v>
+      </c>
+      <c r="F20" s="6">
+        <v>92.12</v>
+      </c>
+      <c r="G20" s="6">
+        <v>92.28</v>
+      </c>
+      <c r="H20" s="6">
+        <v>92.16</v>
+      </c>
+      <c r="I20" s="6">
+        <v>92.22</v>
+      </c>
+      <c r="J20" s="6">
+        <v>92.14</v>
+      </c>
+      <c r="K20" s="6">
+        <v>92.29</v>
+      </c>
+      <c r="L20" s="6">
+        <v>92.23</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A21" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="6">
+        <v>91.43</v>
+      </c>
+      <c r="C21" s="6">
+        <v>91.78</v>
+      </c>
+      <c r="D21" s="6">
+        <v>92.25</v>
+      </c>
+      <c r="E21" s="6">
+        <v>91.7</v>
+      </c>
+      <c r="F21" s="6">
+        <v>91.74</v>
+      </c>
+      <c r="G21" s="6">
+        <v>92.25</v>
+      </c>
+      <c r="H21" s="6">
+        <v>92.14</v>
+      </c>
+      <c r="I21" s="6">
+        <v>92.11</v>
+      </c>
+      <c r="J21" s="6">
+        <v>91.82</v>
+      </c>
+      <c r="K21" s="6">
+        <v>92.25</v>
+      </c>
+      <c r="L21" s="6">
+        <v>91.93</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A22" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="6">
+        <v>91.5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>92.17</v>
+      </c>
+      <c r="D22" s="6">
+        <v>92.24</v>
+      </c>
+      <c r="E22" s="6">
+        <v>92.19</v>
+      </c>
+      <c r="F22" s="6">
+        <v>92.28</v>
+      </c>
+      <c r="G22" s="6">
+        <v>92.28</v>
+      </c>
+      <c r="H22" s="6">
+        <v>92.24</v>
+      </c>
+      <c r="I22" s="6">
+        <v>92.14</v>
+      </c>
+      <c r="J22" s="6">
+        <v>91.96</v>
+      </c>
+      <c r="K22" s="6">
+        <v>92.23</v>
+      </c>
+      <c r="L22" s="6">
+        <v>92.18</v>
+      </c>
+      <c r="M22" s="6">
+        <v>92.3</v>
+      </c>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A23" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="6">
+        <v>91.46</v>
+      </c>
+      <c r="C23" s="6">
+        <v>90.98</v>
+      </c>
+      <c r="D23" s="6">
+        <v>91.95</v>
+      </c>
+      <c r="E23" s="6">
+        <v>92.19</v>
+      </c>
+      <c r="F23" s="6">
+        <v>92.2</v>
+      </c>
+      <c r="G23" s="6">
+        <v>92.31</v>
+      </c>
+      <c r="H23" s="6">
+        <v>92.07</v>
+      </c>
+      <c r="I23" s="6">
+        <v>91.66</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A25" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="30">
+        <v>8</v>
+      </c>
+      <c r="C25" s="30">
+        <v>24</v>
+      </c>
+      <c r="D25" s="30">
+        <v>40</v>
+      </c>
+      <c r="E25" s="30">
+        <v>56</v>
+      </c>
+      <c r="F25" s="30">
+        <v>72</v>
+      </c>
+      <c r="G25" s="30">
+        <v>88</v>
+      </c>
+      <c r="H25" s="30">
+        <v>104</v>
+      </c>
+      <c r="I25" s="30">
+        <v>120</v>
+      </c>
+      <c r="J25" s="30">
+        <v>128</v>
+      </c>
+      <c r="K25" s="30">
+        <v>144</v>
+      </c>
+      <c r="L25" s="30">
+        <v>160</v>
+      </c>
+      <c r="M25" s="30">
+        <v>176</v>
+      </c>
+      <c r="N25" s="30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A26" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="17">
+        <v>89.54</v>
+      </c>
+      <c r="C26" s="17">
+        <v>91.38</v>
+      </c>
+      <c r="D26" s="17">
+        <v>91.34</v>
+      </c>
+      <c r="E26" s="17">
+        <v>91.33</v>
+      </c>
+      <c r="F26" s="17">
+        <v>91.35</v>
+      </c>
+      <c r="G26" s="17">
+        <v>91.34</v>
+      </c>
+      <c r="H26" s="17">
+        <v>91.36</v>
+      </c>
+      <c r="I26" s="17">
+        <v>91.36</v>
+      </c>
+      <c r="J26" s="17">
+        <v>91.34</v>
+      </c>
+      <c r="K26" s="6">
+        <v>91.33</v>
+      </c>
+      <c r="L26" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="M26" s="6">
+        <v>91.32</v>
+      </c>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A27" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="6">
+        <v>89.6</v>
+      </c>
+      <c r="C27" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="D27" s="6">
+        <v>91.32</v>
+      </c>
+      <c r="E27" s="6">
+        <v>91.39</v>
+      </c>
+      <c r="F27" s="6">
+        <v>91.33</v>
+      </c>
+      <c r="G27" s="6">
+        <v>91.39</v>
+      </c>
+      <c r="H27" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="I27" s="6">
+        <v>91.36</v>
+      </c>
+      <c r="J27" s="6">
+        <v>91.36</v>
+      </c>
+      <c r="K27" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="L27" s="6">
+        <v>91.34</v>
+      </c>
+      <c r="M27" s="6">
+        <v>91.39</v>
+      </c>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A28" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="6">
+        <v>89.61</v>
+      </c>
+      <c r="C28" s="6">
+        <v>91.4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>91.34</v>
+      </c>
+      <c r="E28" s="6">
+        <v>91.36</v>
+      </c>
+      <c r="F28" s="6">
+        <v>91.37</v>
+      </c>
+      <c r="G28" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="H28" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="I28" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="J28" s="6">
+        <v>91.36</v>
+      </c>
+      <c r="K28" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="L28" s="6">
+        <v>91.37</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A29" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="6">
+        <v>89.6</v>
+      </c>
+      <c r="C29" s="6">
+        <v>91.4</v>
+      </c>
+      <c r="D29" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="E29" s="6">
+        <v>91.35</v>
+      </c>
+      <c r="F29" s="6">
+        <v>91.52</v>
+      </c>
+      <c r="G29" s="6">
+        <v>92.45</v>
+      </c>
+      <c r="H29" s="6">
+        <v>92.49</v>
+      </c>
+      <c r="I29" s="6">
+        <v>92.5</v>
+      </c>
+      <c r="J29" s="6">
+        <v>92.49</v>
+      </c>
+      <c r="K29" s="6">
+        <v>92.51</v>
+      </c>
+      <c r="L29" s="6">
+        <v>92.45</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A30" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="6">
+        <v>89.61</v>
+      </c>
+      <c r="C30" s="6">
+        <v>91.39</v>
+      </c>
+      <c r="D30" s="6">
+        <v>91.33</v>
+      </c>
+      <c r="E30" s="6">
+        <v>91.33</v>
+      </c>
+      <c r="F30" s="6">
+        <v>91.42</v>
+      </c>
+      <c r="G30" s="6">
+        <v>91.33</v>
+      </c>
+      <c r="H30" s="6">
+        <v>91.33</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A32" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="30">
+        <v>8</v>
+      </c>
+      <c r="C32" s="30">
+        <v>24</v>
+      </c>
+      <c r="D32" s="30">
+        <v>40</v>
+      </c>
+      <c r="E32" s="30">
+        <v>56</v>
+      </c>
+      <c r="F32" s="30">
+        <v>72</v>
+      </c>
+      <c r="G32" s="30">
+        <v>88</v>
+      </c>
+      <c r="H32" s="30">
+        <v>104</v>
+      </c>
+      <c r="I32" s="30">
+        <v>120</v>
+      </c>
+      <c r="J32" s="30">
+        <v>128</v>
+      </c>
+      <c r="K32" s="30">
+        <v>144</v>
+      </c>
+      <c r="L32" s="30">
+        <v>160</v>
+      </c>
+      <c r="M32" s="30">
+        <v>176</v>
+      </c>
+      <c r="N32" s="30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A33" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="6">
+        <v>97.64</v>
+      </c>
+      <c r="C33" s="6">
+        <v>97.69</v>
+      </c>
+      <c r="D33" s="6">
+        <v>97.69</v>
+      </c>
+      <c r="E33" s="6">
+        <v>97.57</v>
+      </c>
+      <c r="F33" s="6">
+        <v>97.63</v>
+      </c>
+      <c r="G33" s="6">
+        <v>97.62</v>
+      </c>
+      <c r="H33" s="6">
+        <v>97.69</v>
+      </c>
+      <c r="I33" s="6">
+        <v>97.62</v>
+      </c>
+      <c r="J33" s="6">
+        <v>97.64</v>
+      </c>
+      <c r="K33" s="6">
+        <v>97.57</v>
+      </c>
+      <c r="L33" s="6">
+        <v>97.62</v>
+      </c>
+      <c r="M33" s="6">
+        <v>97.67</v>
+      </c>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A34" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="6">
+        <v>97.69</v>
+      </c>
+      <c r="C34" s="6">
+        <v>97.74</v>
+      </c>
+      <c r="D34" s="6">
+        <v>97.88</v>
+      </c>
+      <c r="E34" s="6">
+        <v>99.67</v>
+      </c>
+      <c r="F34" s="6">
+        <v>99.71</v>
+      </c>
+      <c r="G34" s="6">
+        <v>99.58</v>
+      </c>
+      <c r="H34" s="6">
+        <v>99.67</v>
+      </c>
+      <c r="I34" s="6">
+        <v>99.71</v>
+      </c>
+      <c r="J34" s="6">
+        <v>99.48</v>
+      </c>
+      <c r="K34" s="6">
+        <v>99.7</v>
+      </c>
+      <c r="L34" s="6">
+        <v>99.63</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A35" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="6">
+        <v>97.74</v>
+      </c>
+      <c r="C35" s="6">
+        <v>97.61</v>
+      </c>
+      <c r="D35" s="6">
+        <v>97.92</v>
+      </c>
+      <c r="E35" s="6">
+        <v>99.66</v>
+      </c>
+      <c r="F35" s="6">
+        <v>99.62</v>
+      </c>
+      <c r="G35" s="6">
+        <v>99.59</v>
+      </c>
+      <c r="H35" s="6">
+        <v>99.41</v>
+      </c>
+      <c r="I35" s="6">
+        <v>99.44</v>
+      </c>
+      <c r="J35" s="6">
+        <v>99.6</v>
+      </c>
+      <c r="K35" s="6">
+        <v>99.43</v>
+      </c>
+      <c r="L35" s="6">
+        <v>99.49</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A36" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="6">
+        <v>97.69</v>
+      </c>
+      <c r="C36" s="6">
+        <v>97.69</v>
+      </c>
+      <c r="D36" s="6">
+        <v>97.92</v>
+      </c>
+      <c r="E36" s="6">
+        <v>99.67</v>
+      </c>
+      <c r="F36" s="6">
+        <v>99.59</v>
+      </c>
+      <c r="G36" s="6">
+        <v>99.64</v>
+      </c>
+      <c r="H36" s="6">
+        <v>99.51</v>
+      </c>
+      <c r="I36" s="6">
+        <v>99.63</v>
+      </c>
+      <c r="J36" s="6">
+        <v>99.66</v>
+      </c>
+      <c r="K36" s="6">
+        <v>99.68</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A37" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="6">
+        <v>97.61</v>
+      </c>
+      <c r="C37" s="6">
+        <v>97.55</v>
+      </c>
+      <c r="D37" s="6">
+        <v>97.81</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA74E3-F709-40FE-A75E-74143B5C2285}">
   <dimension ref="A1:E8"/>
   <sheetViews>

--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527340E2-D63F-4420-96CE-FBAF81E8D292}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC32C72-1D1A-45C2-9865-FB0B7AD342EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" tabRatio="793" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" tabRatio="793" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="history" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="87">
   <si>
     <t>M5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,14 @@
   </si>
   <si>
     <t>lm5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10623,6 +10631,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>97.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16940,7 +16951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF39A649-741C-4A5E-B0C0-91CFF945C22B}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -19348,12 +19359,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
-  <dimension ref="A1:U97"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="K95" sqref="K95"/>
+      <selection pane="topRight" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -21735,7 +21746,9 @@
       <c r="G69" s="6">
         <v>97.67</v>
       </c>
-      <c r="H69" s="6"/>
+      <c r="H69" s="6">
+        <v>98.46</v>
+      </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -21807,7 +21820,9 @@
       <c r="C93" s="6">
         <v>91.08</v>
       </c>
-      <c r="D93" s="6"/>
+      <c r="D93" s="6">
+        <v>91.2</v>
+      </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6">
         <v>91.96</v>
@@ -21898,7 +21913,9 @@
       <c r="C96" s="6">
         <v>99.52</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="D96" s="6">
+        <v>99.49</v>
+      </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6">
         <v>99.66</v>
@@ -21913,16 +21930,70 @@
       <c r="A97" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
+      <c r="B97" s="6">
+        <v>99.41</v>
+      </c>
+      <c r="C97" s="6">
+        <v>99.29</v>
+      </c>
+      <c r="D97" s="6">
+        <v>99.3</v>
+      </c>
+      <c r="E97" s="6">
+        <v>99.41</v>
+      </c>
+      <c r="F97" s="6">
+        <v>99.38</v>
+      </c>
+      <c r="G97" s="6">
+        <v>99.42</v>
+      </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A98" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="6">
+        <v>97.93</v>
+      </c>
+      <c r="C98" s="6">
+        <v>99.28</v>
+      </c>
+      <c r="D98" s="6">
+        <v>99.31</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A99" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="6">
+        <v>98.74</v>
+      </c>
+      <c r="C99" s="6">
+        <v>94.14</v>
+      </c>
+      <c r="D99" s="6">
+        <v>98.55</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC32C72-1D1A-45C2-9865-FB0B7AD342EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE18E73-DC4A-4F51-8369-5CFFEF65DA53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" tabRatio="793" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>M5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,12 +375,16 @@
     <t>s14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>m25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +450,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -568,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -651,6 +662,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10635,6 +10651,9 @@
                 <c:pt idx="6">
                   <c:v>98.46</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.67</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10909,6 +10928,1142 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="524088928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>training size</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'USE1'!$A$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>m43</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USE1'!$B$91:$K$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USE1'!$B$92:$K$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>91.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34BC-422C-B4C8-9E847A11DF3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'USE1'!$A$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>m50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USE1'!$B$91:$K$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USE1'!$B$93:$K$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34BC-422C-B4C8-9E847A11DF3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'USE1'!$A$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USE1'!$B$91:$K$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USE1'!$B$94:$K$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>68.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-34BC-422C-B4C8-9E847A11DF3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'USE1'!$A$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USE1'!$B$91:$K$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USE1'!$B$95:$K$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>70.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-34BC-422C-B4C8-9E847A11DF3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'USE1'!$A$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lm13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USE1'!$B$91:$K$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USE1'!$B$96:$K$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>99.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-34BC-422C-B4C8-9E847A11DF3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'USE1'!$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lm5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USE1'!$B$91:$K$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USE1'!$B$97:$K$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-34BC-422C-B4C8-9E847A11DF3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'USE1'!$A$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USE1'!$B$91:$K$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USE1'!$B$98:$K$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>97.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-34BC-422C-B4C8-9E847A11DF3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'USE1'!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USE1'!$B$91:$K$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USE1'!$B$99:$K$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-34BC-422C-B4C8-9E847A11DF3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="676054048"/>
+        <c:axId val="676052408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="676054048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676052408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="676052408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676054048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11315,6 +12470,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -14928,6 +16123,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15743,6 +17454,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657232</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>528645</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9586771F-ABB8-4227-A6AB-9D59AAB0B1BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16951,7 +18698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF39A649-741C-4A5E-B0C0-91CFF945C22B}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -19359,12 +21106,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
-  <dimension ref="A1:U99"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="E106" sqref="E106"/>
+      <selection pane="topRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -19621,12 +21368,18 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="46">
+        <v>99.99</v>
+      </c>
+      <c r="D6" s="46">
+        <v>99.99</v>
+      </c>
+      <c r="E6" s="46">
+        <v>99.99</v>
+      </c>
       <c r="F6" s="6">
         <v>99.99</v>
       </c>
@@ -19677,12 +21430,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="46">
+        <v>87.45</v>
+      </c>
+      <c r="D7" s="46">
+        <v>87.45</v>
+      </c>
+      <c r="E7" s="46">
+        <v>87.45</v>
+      </c>
       <c r="F7" s="6">
         <v>98.07</v>
       </c>
@@ -19733,12 +21492,18 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="46">
+        <v>87.43</v>
+      </c>
+      <c r="D8" s="46">
+        <v>87.43</v>
+      </c>
+      <c r="E8" s="46">
+        <v>87.43</v>
+      </c>
       <c r="F8" s="6">
         <v>96.28</v>
       </c>
@@ -19789,12 +21554,18 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="46">
+        <v>99.29</v>
+      </c>
+      <c r="D9" s="46">
+        <v>99.55</v>
+      </c>
+      <c r="E9" s="46">
+        <v>99.53</v>
+      </c>
       <c r="F9" s="6">
         <v>99.49</v>
       </c>
@@ -19845,7 +21616,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="46"/>
@@ -19901,12 +21672,18 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="C11" s="46">
+        <v>78.02</v>
+      </c>
+      <c r="D11" s="46">
+        <v>68.27</v>
+      </c>
+      <c r="E11" s="46">
+        <v>75.790000000000006</v>
+      </c>
       <c r="F11" s="6">
         <v>71.260000000000005</v>
       </c>
@@ -20069,7 +21846,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="46"/>
@@ -20128,9 +21905,15 @@
       <c r="B15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="C15" s="46">
+        <v>90.22</v>
+      </c>
+      <c r="D15" s="46">
+        <v>90.44</v>
+      </c>
+      <c r="E15" s="46">
+        <v>90.72</v>
+      </c>
       <c r="F15" s="6">
         <v>91.27</v>
       </c>
@@ -21749,7 +23532,9 @@
       <c r="H69" s="6">
         <v>98.46</v>
       </c>
-      <c r="I69" s="6"/>
+      <c r="I69" s="6">
+        <v>97.67</v>
+      </c>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -21799,12 +23584,18 @@
       <c r="C92" s="6">
         <v>91.38</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
+      <c r="D92" s="6">
+        <v>91.37</v>
+      </c>
+      <c r="E92" s="6">
+        <v>91.33</v>
+      </c>
       <c r="F92" s="6">
         <v>92.49</v>
       </c>
-      <c r="G92" s="6"/>
+      <c r="G92" s="6">
+        <v>91.34</v>
+      </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
@@ -21823,83 +23614,87 @@
       <c r="D93" s="6">
         <v>91.2</v>
       </c>
-      <c r="E93" s="6"/>
+      <c r="E93" s="6">
+        <v>91.03</v>
+      </c>
       <c r="F93" s="6">
         <v>91.96</v>
       </c>
       <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
+      <c r="H93" s="6">
+        <v>91.14</v>
+      </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A94" s="47" t="s">
+    <row r="94" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="50">
         <v>68.06</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="50">
         <v>94.12</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="50">
         <v>95.67</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="50">
         <v>95.56</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="50">
         <v>95.56</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G94" s="50">
         <v>95.72</v>
       </c>
-      <c r="H94" s="6">
+      <c r="H94" s="50">
         <v>95.69</v>
       </c>
-      <c r="I94" s="6">
+      <c r="I94" s="50">
         <v>95.66</v>
       </c>
-      <c r="J94" s="6">
+      <c r="J94" s="50">
         <v>95.55</v>
       </c>
-      <c r="K94" s="6">
+      <c r="K94" s="50">
         <v>95.74</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A95" s="47" t="s">
+    <row r="95" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="50">
         <v>70.38</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="50">
         <v>79.47</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="50">
         <v>75.12</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="50">
         <v>70.650000000000006</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="50">
         <v>75.38</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G95" s="50">
         <v>95.39</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H95" s="50">
         <v>95.24</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95" s="50">
         <v>96</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J95" s="50">
         <v>94.91</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K95" s="50">
         <v>97.4</v>
       </c>
     </row>
@@ -21916,84 +23711,139 @@
       <c r="D96" s="6">
         <v>99.49</v>
       </c>
-      <c r="E96" s="6"/>
+      <c r="E96" s="6">
+        <v>99.68</v>
+      </c>
       <c r="F96" s="6">
         <v>99.66</v>
       </c>
-      <c r="G96" s="6"/>
+      <c r="G96" s="6">
+        <v>99.5</v>
+      </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A97" s="47" t="s">
+    <row r="97" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A97" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="50">
         <v>99.41</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="50">
         <v>99.29</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="50">
         <v>99.3</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="50">
         <v>99.41</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="50">
         <v>99.38</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G97" s="50">
         <v>99.42</v>
       </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
+      <c r="H97" s="50">
+        <v>99.33</v>
+      </c>
+      <c r="I97" s="50">
+        <v>99.43</v>
+      </c>
+      <c r="J97" s="50">
+        <v>99.43</v>
+      </c>
+      <c r="K97" s="50">
+        <v>99.35</v>
+      </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A98" s="47" t="s">
+    <row r="98" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="50">
         <v>97.93</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="50">
         <v>99.28</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="50">
         <v>99.31</v>
       </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
+      <c r="E98" s="50">
+        <v>99.16</v>
+      </c>
+      <c r="F98" s="50">
+        <v>99.04</v>
+      </c>
+      <c r="G98" s="50">
+        <v>98.86</v>
+      </c>
+      <c r="H98" s="50">
+        <v>92.65</v>
+      </c>
+      <c r="I98" s="50">
+        <v>99.09</v>
+      </c>
+      <c r="J98" s="50">
+        <v>99.24</v>
+      </c>
+      <c r="K98" s="50">
+        <v>99.15</v>
+      </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A99" s="47" t="s">
+    <row r="99" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A99" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="50">
         <v>98.74</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="50">
         <v>94.14</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="50">
         <v>98.55</v>
       </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
+      <c r="E99" s="50">
+        <v>98.79</v>
+      </c>
+      <c r="F99" s="50">
+        <v>98.81</v>
+      </c>
+      <c r="G99" s="50">
+        <v>98.33</v>
+      </c>
+      <c r="H99" s="50">
+        <v>98.76</v>
+      </c>
+      <c r="I99" s="50">
+        <v>98.82</v>
+      </c>
+      <c r="J99" s="50">
+        <v>98.81</v>
+      </c>
+      <c r="K99" s="50">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A100" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE18E73-DC4A-4F51-8369-5CFFEF65DA53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE4AED8-80B3-4998-A176-346384D026E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" tabRatio="793" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
   <si>
     <t>M5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,12 +379,36 @@
     <t>m25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>s28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +481,14 @@
       <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -579,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -667,6 +699,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10654,6 +10688,9 @@
                 <c:pt idx="7">
                   <c:v>97.67</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11179,6 +11216,9 @@
                 <c:pt idx="5">
                   <c:v>91.34</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.34</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11277,6 +11317,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>91.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18698,7 +18741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF39A649-741C-4A5E-B0C0-91CFF945C22B}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -19879,9 +19922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449FE37E-F655-4604-BEB8-C483EE37E008}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -21106,12 +21149,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
-  <dimension ref="A1:U100"/>
+  <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="E18" sqref="E18"/>
+      <selection pane="topRight" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -21619,9 +21662,15 @@
       <c r="B10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="C10" s="46">
+        <v>79.69</v>
+      </c>
+      <c r="D10" s="46">
+        <v>97.74</v>
+      </c>
+      <c r="E10" s="46">
+        <v>97.69</v>
+      </c>
       <c r="F10" s="6">
         <v>97.64</v>
       </c>
@@ -21737,9 +21786,15 @@
       <c r="B12" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="46">
+        <v>98.77</v>
+      </c>
+      <c r="D12" s="46">
+        <v>99.43</v>
+      </c>
+      <c r="E12" s="46">
+        <v>99.57</v>
+      </c>
       <c r="F12" s="6">
         <v>99.58</v>
       </c>
@@ -21793,9 +21848,15 @@
       <c r="B13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="C13" s="46">
+        <v>95.55</v>
+      </c>
+      <c r="D13" s="46">
+        <v>95.67</v>
+      </c>
+      <c r="E13" s="46">
+        <v>95.72</v>
+      </c>
       <c r="F13" s="6">
         <v>95.66</v>
       </c>
@@ -21849,9 +21910,15 @@
       <c r="B14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="C14" s="46">
+        <v>89.54</v>
+      </c>
+      <c r="D14" s="46">
+        <v>89.54</v>
+      </c>
+      <c r="E14" s="46">
+        <v>89.59</v>
+      </c>
       <c r="F14" s="17">
         <v>89.54</v>
       </c>
@@ -23535,7 +23602,9 @@
       <c r="I69" s="6">
         <v>97.67</v>
       </c>
-      <c r="J69" s="6"/>
+      <c r="J69" s="6">
+        <v>97.6</v>
+      </c>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -23596,7 +23665,9 @@
       <c r="G92" s="6">
         <v>91.34</v>
       </c>
-      <c r="H92" s="6"/>
+      <c r="H92" s="6">
+        <v>91.34</v>
+      </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
@@ -23624,7 +23695,9 @@
       <c r="H93" s="6">
         <v>91.14</v>
       </c>
-      <c r="I93" s="6"/>
+      <c r="I93" s="6">
+        <v>90.96</v>
+      </c>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
     </row>
@@ -23830,20 +23903,70 @@
         <v>98.94</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A100" s="47" t="s">
+    <row r="100" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A100" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
+      <c r="B100" s="50">
+        <v>99.99</v>
+      </c>
+      <c r="C100" s="50">
+        <v>99.99</v>
+      </c>
+      <c r="D100" s="50">
+        <v>99.99</v>
+      </c>
+      <c r="E100" s="50">
+        <v>99.99</v>
+      </c>
+      <c r="F100" s="50">
+        <v>99.99</v>
+      </c>
+      <c r="G100" s="50">
+        <v>99.99</v>
+      </c>
+      <c r="H100" s="50">
+        <v>99.99</v>
+      </c>
+      <c r="I100" s="50">
+        <v>99.99</v>
+      </c>
+      <c r="J100" s="50">
+        <v>99.99</v>
+      </c>
+      <c r="K100" s="50">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A101" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A102" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A103" s="53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A104" s="53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A105" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A106" s="35" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDAB204-B54A-4C0B-811E-E2108DFCC948}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711722B-E53F-4D57-AEA0-C1A190C1B382}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6684" tabRatio="793" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="107">
   <si>
     <t>M5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3018,7 +3018,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'USE1'!$A$119</c:f>
+              <c:f>'USE1'!$A$121</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3041,7 +3041,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'USE1'!$B$118:$K$118</c:f>
+              <c:f>'USE1'!$B$120:$K$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3080,7 +3080,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'USE1'!$B$119:$K$119</c:f>
+              <c:f>'USE1'!$B$121:$K$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3120,7 +3120,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B49-43A5-87C8-92EBEB262D5B}"/>
+              <c16:uniqueId val="{00000000-3E9D-45DB-9D2F-5A0CD3DDEA86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3129,7 +3129,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'USE1'!$A$120</c:f>
+              <c:f>'USE1'!$A$122</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3152,7 +3152,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'USE1'!$B$118:$K$118</c:f>
+              <c:f>'USE1'!$B$120:$K$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3191,7 +3191,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'USE1'!$B$120:$K$120</c:f>
+              <c:f>'USE1'!$B$122:$K$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3231,7 +3231,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1B49-43A5-87C8-92EBEB262D5B}"/>
+              <c16:uniqueId val="{00000001-3E9D-45DB-9D2F-5A0CD3DDEA86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3240,7 +3240,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'USE1'!$A$121</c:f>
+              <c:f>'USE1'!$A$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3263,7 +3263,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'USE1'!$B$118:$K$118</c:f>
+              <c:f>'USE1'!$B$120:$K$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3302,7 +3302,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'USE1'!$B$121:$K$121</c:f>
+              <c:f>'USE1'!$B$123:$K$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3342,7 +3342,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1B49-43A5-87C8-92EBEB262D5B}"/>
+              <c16:uniqueId val="{00000002-3E9D-45DB-9D2F-5A0CD3DDEA86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3351,7 +3351,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'USE1'!$A$122</c:f>
+              <c:f>'USE1'!$A$124</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3374,7 +3374,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'USE1'!$B$118:$K$118</c:f>
+              <c:f>'USE1'!$B$120:$K$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3413,7 +3413,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'USE1'!$B$122:$K$122</c:f>
+              <c:f>'USE1'!$B$124:$K$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3453,7 +3453,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1B49-43A5-87C8-92EBEB262D5B}"/>
+              <c16:uniqueId val="{00000003-3E9D-45DB-9D2F-5A0CD3DDEA86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3462,7 +3462,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'USE1'!$A$123</c:f>
+              <c:f>'USE1'!$A$125</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3485,7 +3485,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'USE1'!$B$118:$K$118</c:f>
+              <c:f>'USE1'!$B$120:$K$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3524,7 +3524,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'USE1'!$B$123:$K$123</c:f>
+              <c:f>'USE1'!$B$125:$K$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3549,7 +3549,100 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1B49-43A5-87C8-92EBEB262D5B}"/>
+              <c16:uniqueId val="{00000004-3E9D-45DB-9D2F-5A0CD3DDEA86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'USE1'!$A$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USE1'!$B$120:$K$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USE1'!$B$126:$K$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3E9D-45DB-9D2F-5A0CD3DDEA86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3562,11 +3655,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="767370128"/>
-        <c:axId val="767367832"/>
+        <c:axId val="656103544"/>
+        <c:axId val="656103872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="767370128"/>
+        <c:axId val="656103544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3609,7 +3702,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767367832"/>
+        <c:crossAx val="656103872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3617,7 +3710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="767367832"/>
+        <c:axId val="656103872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3668,7 +3761,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767370128"/>
+        <c:crossAx val="656103544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18467,11 +18560,17 @@
                 <c:pt idx="4">
                   <c:v>91.96</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.68</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>91.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>90.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18479,7 +18578,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C8E-4613-BCBA-606C67AFF921}"/>
+              <c16:uniqueId val="{00000000-4DD4-4724-AC4E-49ADA4ACDE01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18578,13 +18677,16 @@
                 <c:pt idx="7">
                   <c:v>99.47</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.55</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C8E-4613-BCBA-606C67AFF921}"/>
+              <c16:uniqueId val="{00000001-4DD4-4724-AC4E-49ADA4ACDE01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18695,7 +18797,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9C8E-4613-BCBA-606C67AFF921}"/>
+              <c16:uniqueId val="{00000002-4DD4-4724-AC4E-49ADA4ACDE01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18806,7 +18908,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9C8E-4613-BCBA-606C67AFF921}"/>
+              <c16:uniqueId val="{00000003-4DD4-4724-AC4E-49ADA4ACDE01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18917,7 +19019,341 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9C8E-4613-BCBA-606C67AFF921}"/>
+              <c16:uniqueId val="{00000004-4DD4-4724-AC4E-49ADA4ACDE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'USE1'!$A$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>m25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USE1'!$B$110:$K$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USE1'!$B$116:$K$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>99.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4DD4-4724-AC4E-49ADA4ACDE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'USE1'!$A$117</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>m33</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USE1'!$B$110:$K$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USE1'!$B$117:$K$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4DD4-4724-AC4E-49ADA4ACDE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'USE1'!$A$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>m43</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USE1'!$B$110:$K$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USE1'!$B$118:$K$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>91.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4DD4-4724-AC4E-49ADA4ACDE01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18930,11 +19366,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="770791040"/>
-        <c:axId val="770791696"/>
+        <c:axId val="261755456"/>
+        <c:axId val="261758736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="770791040"/>
+        <c:axId val="261755456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18977,7 +19413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="770791696"/>
+        <c:crossAx val="261758736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18985,7 +19421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="770791696"/>
+        <c:axId val="261758736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19036,7 +19472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="770791040"/>
+        <c:crossAx val="261755456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28322,22 +28758,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>14295</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:colOff>609608</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>557220</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>481021</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="图表 11">
+        <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E869650C-2F7A-4FE4-8FC9-2CE59937017E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C70CE0C-C8BD-424F-B385-776441E3DF5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28357,23 +28793,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>638183</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>500070</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>509595</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371483</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="图表 12">
+        <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9A2BB6-8F12-4FB4-A913-DB292D4603A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8971A473-B764-4E1D-BF75-409B292C7618}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32228,12 +32664,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F99883-B1DD-4EC7-A1C6-32FB63BE8E75}">
-  <dimension ref="A1:U123"/>
+  <dimension ref="A1:U126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="T112" sqref="T112"/>
+      <selection pane="topRight" activeCell="K136" sqref="K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -34751,7 +35187,9 @@
       <c r="J92" s="6">
         <v>91.36</v>
       </c>
-      <c r="K92" s="6"/>
+      <c r="K92" s="6">
+        <v>91.38</v>
+      </c>
     </row>
     <row r="93" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A93" s="57" t="s">
@@ -34772,14 +35210,18 @@
       <c r="F93" s="57">
         <v>91.96</v>
       </c>
-      <c r="G93" s="57"/>
+      <c r="G93" s="57">
+        <v>91.68</v>
+      </c>
       <c r="H93" s="57">
         <v>91.14</v>
       </c>
       <c r="I93" s="57">
         <v>90.96</v>
       </c>
-      <c r="J93" s="57"/>
+      <c r="J93" s="57">
+        <v>91.22</v>
+      </c>
       <c r="K93" s="57"/>
     </row>
     <row r="94" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.5">
@@ -34881,7 +35323,9 @@
         <v>99.47</v>
       </c>
       <c r="J96" s="57"/>
-      <c r="K96" s="57"/>
+      <c r="K96" s="57">
+        <v>99.55</v>
+      </c>
     </row>
     <row r="97" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A97" s="54" t="s">
@@ -35033,8 +35477,12 @@
       <c r="C101" s="6">
         <v>89.19</v>
       </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
+      <c r="D101" s="6">
+        <v>90.09</v>
+      </c>
+      <c r="E101" s="6">
+        <v>90.9</v>
+      </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -35166,9 +35614,15 @@
       <c r="F105" s="57">
         <v>99.16</v>
       </c>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
+      <c r="G105" s="57">
+        <v>98.87</v>
+      </c>
+      <c r="H105" s="57">
+        <v>99.25</v>
+      </c>
+      <c r="I105" s="57">
+        <v>99.13</v>
+      </c>
       <c r="J105" s="57"/>
       <c r="K105" s="57"/>
     </row>
@@ -35179,7 +35633,9 @@
       <c r="B106" s="6">
         <v>72.489999999999995</v>
       </c>
-      <c r="C106" s="6"/>
+      <c r="C106" s="6">
+        <v>72.510000000000005</v>
+      </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -35187,7 +35643,9 @@
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
+      <c r="K106" s="6">
+        <v>72.48</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A110" s="47"/>
@@ -35224,7 +35682,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A111" s="47" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B111" s="10">
         <v>90.66</v>
@@ -35241,14 +35699,18 @@
       <c r="F111" s="10">
         <v>91.96</v>
       </c>
-      <c r="G111" s="10"/>
+      <c r="G111" s="10">
+        <v>91.68</v>
+      </c>
       <c r="H111" s="10">
         <v>91.14</v>
       </c>
       <c r="I111" s="10">
         <v>90.96</v>
       </c>
-      <c r="J111" s="10"/>
+      <c r="J111" s="10">
+        <v>91.22</v>
+      </c>
       <c r="K111" s="10"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.5">
@@ -35280,7 +35742,9 @@
         <v>99.47</v>
       </c>
       <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
+      <c r="K112" s="10">
+        <v>99.55</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A113" s="49" t="s">
@@ -35387,203 +35851,329 @@
         <v>99.96</v>
       </c>
     </row>
+    <row r="116" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A116" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="60">
+        <v>99.99</v>
+      </c>
+      <c r="C116" s="60">
+        <v>99.99</v>
+      </c>
+      <c r="D116" s="60">
+        <v>99.99</v>
+      </c>
+      <c r="E116" s="60">
+        <v>99.99</v>
+      </c>
+      <c r="F116" s="60">
+        <v>99.99</v>
+      </c>
+      <c r="G116" s="60">
+        <v>99.99</v>
+      </c>
+      <c r="H116" s="60">
+        <v>99.99</v>
+      </c>
+      <c r="I116" s="60">
+        <v>99.99</v>
+      </c>
+      <c r="J116" s="60">
+        <v>99.99</v>
+      </c>
+      <c r="K116" s="60">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A117" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="10">
+        <v>100</v>
+      </c>
+      <c r="C117" s="10">
+        <v>100</v>
+      </c>
+      <c r="D117" s="10">
+        <v>100</v>
+      </c>
+      <c r="E117" s="10">
+        <v>100</v>
+      </c>
+      <c r="F117" s="10">
+        <v>100</v>
+      </c>
+      <c r="G117" s="10">
+        <v>100</v>
+      </c>
+      <c r="H117" s="10">
+        <v>100</v>
+      </c>
+      <c r="I117" s="10">
+        <v>100</v>
+      </c>
+      <c r="J117" s="10">
+        <v>100</v>
+      </c>
+      <c r="K117" s="10">
+        <v>100</v>
+      </c>
+    </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A118" s="47"/>
-      <c r="B118" s="47">
-        <v>0.1</v>
-      </c>
-      <c r="C118" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="D118" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="E118" s="47">
-        <v>0.4</v>
-      </c>
-      <c r="F118" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G118" s="47">
-        <v>0.6</v>
-      </c>
-      <c r="H118" s="47">
-        <v>0.7</v>
-      </c>
-      <c r="I118" s="47">
-        <v>0.8</v>
-      </c>
-      <c r="J118" s="47">
-        <v>0.9</v>
-      </c>
-      <c r="K118" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A119" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B119" s="60">
-        <v>68.06</v>
-      </c>
-      <c r="C119" s="60">
-        <v>94.12</v>
-      </c>
-      <c r="D119" s="60">
-        <v>95.67</v>
-      </c>
-      <c r="E119" s="60">
-        <v>95.56</v>
-      </c>
-      <c r="F119" s="60">
-        <v>95.56</v>
-      </c>
-      <c r="G119" s="60">
-        <v>95.72</v>
-      </c>
-      <c r="H119" s="60">
-        <v>95.69</v>
-      </c>
-      <c r="I119" s="60">
-        <v>95.66</v>
-      </c>
-      <c r="J119" s="60">
-        <v>95.55</v>
-      </c>
-      <c r="K119" s="60">
-        <v>95.74</v>
+      <c r="A118" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="10">
+        <v>91.37</v>
+      </c>
+      <c r="C118" s="10">
+        <v>91.38</v>
+      </c>
+      <c r="D118" s="10">
+        <v>91.37</v>
+      </c>
+      <c r="E118" s="10">
+        <v>91.33</v>
+      </c>
+      <c r="F118" s="10">
+        <v>92.49</v>
+      </c>
+      <c r="G118" s="10">
+        <v>91.34</v>
+      </c>
+      <c r="H118" s="10">
+        <v>91.34</v>
+      </c>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10">
+        <v>91.36</v>
+      </c>
+      <c r="K118" s="10">
+        <v>91.38</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A120" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B120" s="60">
-        <v>70.38</v>
-      </c>
-      <c r="C120" s="60">
-        <v>79.47</v>
-      </c>
-      <c r="D120" s="60">
-        <v>75.12</v>
-      </c>
-      <c r="E120" s="60">
-        <v>70.650000000000006</v>
-      </c>
-      <c r="F120" s="60">
-        <v>75.38</v>
-      </c>
-      <c r="G120" s="60">
-        <v>95.39</v>
-      </c>
-      <c r="H120" s="60">
-        <v>95.24</v>
-      </c>
-      <c r="I120" s="60">
-        <v>96</v>
-      </c>
-      <c r="J120" s="60">
-        <v>94.91</v>
-      </c>
-      <c r="K120" s="60">
-        <v>97.4</v>
+      <c r="A120" s="47"/>
+      <c r="B120" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="C120" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="D120" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="E120" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="F120" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="G120" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="H120" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="I120" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="J120" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="K120" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A121" s="49" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B121" s="60">
-        <v>97.93</v>
+        <v>68.06</v>
       </c>
       <c r="C121" s="60">
-        <v>99.28</v>
+        <v>94.12</v>
       </c>
       <c r="D121" s="60">
-        <v>99.31</v>
+        <v>95.67</v>
       </c>
       <c r="E121" s="60">
-        <v>99.16</v>
+        <v>95.56</v>
       </c>
       <c r="F121" s="60">
-        <v>99.04</v>
+        <v>95.56</v>
       </c>
       <c r="G121" s="60">
-        <v>98.86</v>
+        <v>95.72</v>
       </c>
       <c r="H121" s="60">
-        <v>92.65</v>
+        <v>95.69</v>
       </c>
       <c r="I121" s="60">
-        <v>99.09</v>
+        <v>95.66</v>
       </c>
       <c r="J121" s="60">
-        <v>99.24</v>
+        <v>95.55</v>
       </c>
       <c r="K121" s="60">
-        <v>99.15</v>
+        <v>95.74</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A122" s="49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B122" s="60">
-        <v>98.74</v>
+        <v>70.38</v>
       </c>
       <c r="C122" s="60">
-        <v>94.14</v>
+        <v>79.47</v>
       </c>
       <c r="D122" s="60">
-        <v>98.55</v>
+        <v>75.12</v>
       </c>
       <c r="E122" s="60">
-        <v>98.79</v>
+        <v>70.650000000000006</v>
       </c>
       <c r="F122" s="60">
-        <v>98.81</v>
+        <v>75.38</v>
       </c>
       <c r="G122" s="60">
-        <v>98.33</v>
+        <v>95.39</v>
       </c>
       <c r="H122" s="60">
-        <v>98.76</v>
+        <v>95.24</v>
       </c>
       <c r="I122" s="60">
-        <v>98.82</v>
+        <v>96</v>
       </c>
       <c r="J122" s="60">
-        <v>98.81</v>
+        <v>94.91</v>
       </c>
       <c r="K122" s="60">
-        <v>98.94</v>
+        <v>97.4</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A123" s="30" t="s">
+      <c r="A123" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B123" s="60">
+        <v>97.93</v>
+      </c>
+      <c r="C123" s="60">
+        <v>99.28</v>
+      </c>
+      <c r="D123" s="60">
+        <v>99.31</v>
+      </c>
+      <c r="E123" s="60">
+        <v>99.16</v>
+      </c>
+      <c r="F123" s="60">
+        <v>99.04</v>
+      </c>
+      <c r="G123" s="60">
+        <v>98.86</v>
+      </c>
+      <c r="H123" s="60">
+        <v>92.65</v>
+      </c>
+      <c r="I123" s="60">
+        <v>99.09</v>
+      </c>
+      <c r="J123" s="60">
+        <v>99.24</v>
+      </c>
+      <c r="K123" s="60">
+        <v>99.15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A124" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="60">
+        <v>98.74</v>
+      </c>
+      <c r="C124" s="60">
+        <v>94.14</v>
+      </c>
+      <c r="D124" s="60">
+        <v>98.55</v>
+      </c>
+      <c r="E124" s="60">
+        <v>98.79</v>
+      </c>
+      <c r="F124" s="60">
+        <v>98.81</v>
+      </c>
+      <c r="G124" s="60">
+        <v>98.33</v>
+      </c>
+      <c r="H124" s="60">
+        <v>98.76</v>
+      </c>
+      <c r="I124" s="60">
+        <v>98.82</v>
+      </c>
+      <c r="J124" s="60">
+        <v>98.81</v>
+      </c>
+      <c r="K124" s="60">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A125" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B125" s="10">
         <v>92.21</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C125" s="10">
         <v>92.51</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D125" s="10">
         <v>99.2</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E125" s="10">
         <v>99.03</v>
       </c>
-      <c r="F123" s="10">
+      <c r="F125" s="10">
         <v>99.16</v>
       </c>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A126" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B126" s="6">
+        <v>90.01</v>
+      </c>
+      <c r="C126" s="6">
+        <v>89.19</v>
+      </c>
+      <c r="D126" s="6">
+        <v>90.09</v>
+      </c>
+      <c r="E126" s="6">
+        <v>90.9</v>
+      </c>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
